--- a/Analysis/Output/Reg2cts_Rob.xlsx
+++ b/Analysis/Output/Reg2cts_Rob.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t xml:space="preserve">term</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t xml:space="preserve">WalkUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleFam</t>
   </si>
   <si>
     <t xml:space="preserve">factor(LUC)Agriculture</t>
@@ -674,40 +677,40 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>2.64483218440609</v>
+        <v>2.66963821992272</v>
       </c>
       <c r="C2" t="n">
-        <v>13.853803942008</v>
+        <v>13.8520422366244</v>
       </c>
       <c r="D2" t="n">
-        <v>0.19091017856737</v>
+        <v>0.192725243997906</v>
       </c>
       <c r="E2" t="n">
-        <v>0.85201962842482</v>
+        <v>0.850631750907419</v>
       </c>
       <c r="F2" t="n">
-        <v>0.699564530775666</v>
+        <v>0.721277734987765</v>
       </c>
       <c r="G2" t="n">
-        <v>19.3676167789431</v>
+        <v>19.3665091737462</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0361203207787676</v>
+        <v>0.03724355941057</v>
       </c>
       <c r="I2" t="n">
-        <v>0.971820366235151</v>
+        <v>0.970944548243763</v>
       </c>
       <c r="J2" t="n">
-        <v>12.3232957646307</v>
+        <v>12.3238707783815</v>
       </c>
       <c r="K2" t="n">
-        <v>0.111771635970597</v>
+        <v>0.113074406730801</v>
       </c>
       <c r="L2" t="n">
-        <v>110.254230938093</v>
+        <v>108.989037702592</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00000000000000914787937822017</v>
+        <v>0.00000000000000942476441365345</v>
       </c>
       <c r="N2" t="n">
         <v>12.7322886089173</v>
@@ -751,40 +754,40 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>0.010933498979142</v>
+        <v>0.0109819479172739</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0109207302515816</v>
+        <v>0.0109760685158341</v>
       </c>
       <c r="D3" t="n">
-        <v>1.00116921920661</v>
+        <v>1.00053565640842</v>
       </c>
       <c r="E3" t="n">
-        <v>0.340940849406076</v>
+        <v>0.341233307313337</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00109771064613161</v>
+        <v>0.00115135027586443</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0109825145484571</v>
+        <v>0.0110103709550366</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0999507572959072</v>
+        <v>0.104569617187853</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9224074945528</v>
+        <v>0.918836001500537</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.00237891618877401</v>
+        <v>-0.0023587617238819</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0149226568817303</v>
+        <v>0.0149446605549042</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.159416396666367</v>
+        <v>-0.157833074576449</v>
       </c>
       <c r="M3" t="n">
-        <v>0.876590744892764</v>
+        <v>0.87780539277826</v>
       </c>
       <c r="N3" t="n">
         <v>-0.0199775440681942</v>
@@ -828,40 +831,40 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.00000692725234216416</v>
+        <v>-0.00000674586049596123</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0000604516351100604</v>
+        <v>0.0000605705066868319</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.11459164552873</v>
+        <v>-0.111372033435999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.913501021441899</v>
+        <v>0.915920312498469</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000018044719883208</v>
+        <v>0.0000181955635973527</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0000533064825821382</v>
+        <v>0.0000533913576708769</v>
       </c>
       <c r="H4" t="n">
-        <v>0.338508920662763</v>
+        <v>0.340796046234983</v>
       </c>
       <c r="I4" t="n">
-        <v>0.749533964567456</v>
+        <v>0.747921143174372</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0000480005473661475</v>
+        <v>0.0000480688843566066</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0000955546599981843</v>
+        <v>0.0000957786224584158</v>
       </c>
       <c r="L4" t="n">
-        <v>0.502336017595161</v>
+        <v>0.501874876906657</v>
       </c>
       <c r="M4" t="n">
-        <v>0.63801216294046</v>
+        <v>0.638318595521349</v>
       </c>
       <c r="N4" t="n">
         <v>0.000258044327830906</v>
@@ -897,40 +900,40 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0526810009379956</v>
+        <v>0.0527398303195802</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0128850964333097</v>
+        <v>0.0129173425192131</v>
       </c>
       <c r="D5" t="n">
-        <v>4.08852205419343</v>
+        <v>4.08287000527668</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00185410772295235</v>
+        <v>0.00187181587496598</v>
       </c>
       <c r="F5" t="n">
-        <v>0.045285296793937</v>
+        <v>0.0453525398553568</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0110860401720727</v>
+        <v>0.0111250305913233</v>
       </c>
       <c r="H5" t="n">
-        <v>4.08489380256957</v>
+        <v>4.076621586167</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00188131154194383</v>
+        <v>0.00190754691575779</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0403101825925264</v>
+        <v>0.0403341349482035</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0124003276370485</v>
+        <v>0.0124834407894014</v>
       </c>
       <c r="L5" t="n">
-        <v>3.25073528477517</v>
+        <v>3.23101103523059</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00792418098924784</v>
+        <v>0.00820403682336801</v>
       </c>
       <c r="N5" t="n">
         <v>0.0576635029515031</v>
@@ -966,40 +969,40 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0698048278901105</v>
+        <v>0.0697784169884229</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0152963713569314</v>
+        <v>0.0152634411639987</v>
       </c>
       <c r="D6" t="n">
-        <v>4.56348935713299</v>
+        <v>4.57160454439374</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000878682641995659</v>
+        <v>0.000867199485852964</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0660171523034649</v>
+        <v>0.065985623245825</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0161839303921593</v>
+        <v>0.01613743922137</v>
       </c>
       <c r="H6" t="n">
-        <v>4.07917920454284</v>
+        <v>4.08897733653078</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00193878368518691</v>
+        <v>0.00190712337892694</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0533685498234945</v>
+        <v>0.0533568097694231</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0175836774427865</v>
+        <v>0.0175417417223334</v>
       </c>
       <c r="L6" t="n">
-        <v>3.03511879111433</v>
+        <v>3.041705357085</v>
       </c>
       <c r="M6" t="n">
-        <v>0.011695759240826</v>
+        <v>0.0115599770432151</v>
       </c>
       <c r="N6" t="n">
         <v>0.0668473249975715</v>
@@ -1035,40 +1038,40 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0597513102599702</v>
+        <v>0.0597040609337386</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0151972682456832</v>
+        <v>0.0151607738705704</v>
       </c>
       <c r="D7" t="n">
-        <v>3.93171386422967</v>
+        <v>3.93806156885132</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002305016498468</v>
+        <v>0.00227994982214799</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0517511442801464</v>
+        <v>0.0517008917977194</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0157203760336957</v>
+        <v>0.0156834086296955</v>
       </c>
       <c r="H7" t="n">
-        <v>3.29197877768451</v>
+        <v>3.29653412841818</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0071037780724659</v>
+        <v>0.00704641161018393</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0443323418450152</v>
+        <v>0.0443143212511836</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0160481017053686</v>
+        <v>0.0159871864567782</v>
       </c>
       <c r="L7" t="n">
-        <v>2.76246640624073</v>
+        <v>2.77186491638092</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0183403903731841</v>
+        <v>0.0180335795930993</v>
       </c>
       <c r="N7" t="n">
         <v>0.055214002803721</v>
@@ -1104,40 +1107,40 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0236765136451964</v>
+        <v>0.0235668403168593</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0247928414545339</v>
+        <v>0.0248577849533773</v>
       </c>
       <c r="D8" t="n">
-        <v>0.954973785018364</v>
+        <v>0.948066787167914</v>
       </c>
       <c r="E8" t="n">
-        <v>0.363672224568272</v>
+        <v>0.366999256291204</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0272689606004555</v>
+        <v>0.0271528049533789</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0265059823477593</v>
+        <v>0.0265113364289175</v>
       </c>
       <c r="H8" t="n">
-        <v>1.02878513396281</v>
+        <v>1.02419600860867</v>
       </c>
       <c r="I8" t="n">
-        <v>0.329495655233648</v>
+        <v>0.331548496559264</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0216742766579653</v>
+        <v>0.0216315313550361</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0288005398853149</v>
+        <v>0.0287746471577344</v>
       </c>
       <c r="L8" t="n">
-        <v>0.752564943027918</v>
+        <v>0.751756615344689</v>
       </c>
       <c r="M8" t="n">
-        <v>0.470252819991515</v>
+        <v>0.470717063169703</v>
       </c>
       <c r="N8" t="n">
         <v>0.0394387655285061</v>
@@ -1173,40 +1176,40 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0523919257095368</v>
+        <v>0.0523435613604844</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0328278747229807</v>
+        <v>0.0328631541350829</v>
       </c>
       <c r="D9" t="n">
-        <v>1.59595850025773</v>
+        <v>1.59277350997192</v>
       </c>
       <c r="E9" t="n">
-        <v>0.141986842807337</v>
+        <v>0.142700235056768</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0574322384707643</v>
+        <v>0.0573758274036566</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0349848169929501</v>
+        <v>0.0350030951908688</v>
       </c>
       <c r="H9" t="n">
-        <v>1.64163323999487</v>
+        <v>1.63916439648526</v>
       </c>
       <c r="I9" t="n">
-        <v>0.132089504988969</v>
+        <v>0.132607802901498</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0493672309975422</v>
+        <v>0.049346268783748</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0365516960311297</v>
+        <v>0.0365541161440765</v>
       </c>
       <c r="L9" t="n">
-        <v>1.35061396208532</v>
+        <v>1.34995108592564</v>
       </c>
       <c r="M9" t="n">
-        <v>0.206954364793524</v>
+        <v>0.207159728696049</v>
       </c>
       <c r="N9" t="n">
         <v>0.0839178065322692</v>
@@ -1242,40 +1245,40 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>0.094907617017262</v>
+        <v>0.0948225393488051</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0341868541687408</v>
+        <v>0.0342334576181215</v>
       </c>
       <c r="D10" t="n">
-        <v>2.77614361791855</v>
+        <v>2.76987911669813</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0199703999870034</v>
+        <v>0.020185048394513</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0984497217665532</v>
+        <v>0.0983463052714002</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0351950651793794</v>
+        <v>0.0352280188851608</v>
       </c>
       <c r="H10" t="n">
-        <v>2.79725925395456</v>
+        <v>2.79170695326347</v>
       </c>
       <c r="I10" t="n">
-        <v>0.019266941994673</v>
+        <v>0.0194505258560845</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0860748558970974</v>
+        <v>0.086037150575089</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0343505953700603</v>
+        <v>0.0343285372088757</v>
       </c>
       <c r="L10" t="n">
-        <v>2.50577478992168</v>
+        <v>2.50628653506517</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0316058195373987</v>
+        <v>0.0315794903429889</v>
       </c>
       <c r="N10" t="n">
         <v>0.124602842470042</v>
@@ -1311,40 +1314,40 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0607425069588945</v>
+        <v>0.060461651689895</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0974543403670725</v>
+        <v>0.0977291655757418</v>
       </c>
       <c r="D11" t="n">
-        <v>0.623291961446778</v>
+        <v>0.618665383396077</v>
       </c>
       <c r="E11" t="n">
-        <v>0.550613855269546</v>
+        <v>0.553508261223933</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0610542435667359</v>
+        <v>0.0607158393052478</v>
       </c>
       <c r="G11" t="n">
-        <v>0.114566861732446</v>
+        <v>0.11468595046962</v>
       </c>
       <c r="H11" t="n">
-        <v>0.532913642247782</v>
+        <v>0.529409566356004</v>
       </c>
       <c r="I11" t="n">
-        <v>0.608721420183248</v>
+        <v>0.611039605772374</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0472800835633134</v>
+        <v>0.0471619735699407</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1118629102667</v>
+        <v>0.111936485658475</v>
       </c>
       <c r="L11" t="n">
-        <v>0.422660946783787</v>
+        <v>0.421327981600519</v>
       </c>
       <c r="M11" t="n">
-        <v>0.683790046521176</v>
+        <v>0.684723797149394</v>
       </c>
       <c r="N11" t="n">
         <v>0.0979904208002999</v>
@@ -1380,40 +1383,40 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05961870877353</v>
+        <v>0.0596559761781299</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0276899419522075</v>
+        <v>0.0277385193372319</v>
       </c>
       <c r="D12" t="n">
-        <v>2.15308175352737</v>
+        <v>2.15065467095992</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0519256174051647</v>
+        <v>0.0521490553188978</v>
       </c>
       <c r="F12" t="n">
-        <v>0.050101954526352</v>
+        <v>0.0501498617520782</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0314374285062558</v>
+        <v>0.0314852190003351</v>
       </c>
       <c r="H12" t="n">
-        <v>1.5937039671162</v>
+        <v>1.59280650871587</v>
       </c>
       <c r="I12" t="n">
-        <v>0.136219076229929</v>
+        <v>0.136416612585929</v>
       </c>
       <c r="J12" t="n">
-        <v>0.016129079941852</v>
+        <v>0.0161429310890189</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0270490678603758</v>
+        <v>0.0270753633474461</v>
       </c>
       <c r="L12" t="n">
-        <v>0.596289677156656</v>
+        <v>0.596222140470059</v>
       </c>
       <c r="M12" t="n">
-        <v>0.561585335380467</v>
+        <v>0.561627633606481</v>
       </c>
       <c r="N12" t="n">
         <v>-0.0353913857324072</v>
@@ -1441,40 +1444,40 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0605452453869487</v>
+        <v>0.0605651309865634</v>
       </c>
       <c r="C13" t="n">
-        <v>0.029711043056587</v>
+        <v>0.0296747631072411</v>
       </c>
       <c r="D13" t="n">
-        <v>2.03780275474125</v>
+        <v>2.04096426204611</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0619199272192759</v>
+        <v>0.0615639722521218</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0675227814657388</v>
+        <v>0.0675445947039922</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0370184093196535</v>
+        <v>0.0369791219350571</v>
       </c>
       <c r="H13" t="n">
-        <v>1.82403249374333</v>
+        <v>1.82656026345391</v>
       </c>
       <c r="I13" t="n">
-        <v>0.090690698442575</v>
+        <v>0.0902879902900423</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0863325168290744</v>
+        <v>0.0863449145598237</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0432707960769146</v>
+        <v>0.0432419519578524</v>
       </c>
       <c r="L13" t="n">
-        <v>1.99516821173377</v>
+        <v>1.99678577516536</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0668130077992018</v>
+        <v>0.0666151755505248</v>
       </c>
       <c r="N13" t="n">
         <v>0.109548152716457</v>
@@ -1502,40 +1505,40 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0224236517044999</v>
+        <v>0.022499836722323</v>
       </c>
       <c r="C14" t="n">
-        <v>0.024915416758762</v>
+        <v>0.0248649610488987</v>
       </c>
       <c r="D14" t="n">
-        <v>0.899991034531429</v>
+        <v>0.904881237419818</v>
       </c>
       <c r="E14" t="n">
-        <v>0.385844938718475</v>
+        <v>0.383341636240997</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0188200701008695</v>
+        <v>0.0189022690820266</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0268920136481094</v>
+        <v>0.0268607520815309</v>
       </c>
       <c r="H14" t="n">
-        <v>0.699838634143807</v>
+        <v>0.703713322123381</v>
       </c>
       <c r="I14" t="n">
-        <v>0.497452029250535</v>
+        <v>0.495114197034651</v>
       </c>
       <c r="J14" t="n">
-        <v>0.00499089475632797</v>
+        <v>0.00502206528211369</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0336381867736799</v>
+        <v>0.0336184214419574</v>
       </c>
       <c r="L14" t="n">
-        <v>0.148369910361312</v>
+        <v>0.149384327600995</v>
       </c>
       <c r="M14" t="n">
-        <v>0.884547275708264</v>
+        <v>0.883762600729463</v>
       </c>
       <c r="N14" t="n">
         <v>-0.0044927235092102</v>
@@ -1563,40 +1566,40 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0316051340534981</v>
+        <v>-0.0314179304702072</v>
       </c>
       <c r="C15" t="n">
-        <v>0.023040004656783</v>
+        <v>0.0228975263861226</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.37175033270636</v>
+        <v>-1.37211024197131</v>
       </c>
       <c r="E15" t="n">
-        <v>0.200744724579524</v>
+        <v>0.20059671688576</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0328721439864537</v>
+        <v>-0.032660538084017</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0233822427605212</v>
+        <v>0.0232846704978157</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.40585932338173</v>
+        <v>-1.40266266972001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.190689317385592</v>
+        <v>0.191568850246888</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.0353386264440567</v>
+        <v>-0.0352631417148443</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0282765988191547</v>
+        <v>0.0279446354037495</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.2497481281277</v>
+        <v>-1.26189306839598</v>
       </c>
       <c r="M15" t="n">
-        <v>0.240558741397863</v>
+        <v>0.236297109037533</v>
       </c>
       <c r="N15" t="n">
         <v>-0.107561312617165</v>
@@ -1624,40 +1627,40 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.00598680253026766</v>
+        <v>-0.00605480818884343</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0117676012272175</v>
+        <v>0.0117008585736605</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.508753008762795</v>
+        <v>-0.517467000453561</v>
       </c>
       <c r="E16" t="n">
-        <v>0.622489417929647</v>
+        <v>0.616620985748562</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.00740672303968854</v>
+        <v>-0.00748374688483042</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0118987027280676</v>
+        <v>0.0118815759331002</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.62248156029791</v>
+        <v>-0.629861470142345</v>
       </c>
       <c r="I16" t="n">
-        <v>0.548145583462651</v>
+        <v>0.54350604238224</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00199315969499639</v>
+        <v>0.0019669046880285</v>
       </c>
       <c r="K16" t="n">
-        <v>0.00750309694164475</v>
+        <v>0.00751388017769856</v>
       </c>
       <c r="L16" t="n">
-        <v>0.26564493441817</v>
+        <v>0.261769504106059</v>
       </c>
       <c r="M16" t="n">
-        <v>0.796100184954719</v>
+        <v>0.799000394707209</v>
       </c>
       <c r="N16" t="n">
         <v>0.0826853207301004</v>
@@ -1685,40 +1688,40 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>0.000519879883666456</v>
+        <v>0.000519880840557599</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0000640463689257249</v>
+        <v>0.0000640474518771065</v>
       </c>
       <c r="D17" t="n">
-        <v>8.11724212295882</v>
+        <v>8.11711981227825</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0000286666063765316</v>
+        <v>0.0000286887404373021</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000564865200727208</v>
+        <v>0.000564860717598448</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0000702125191631518</v>
+        <v>0.0000702089086709212</v>
       </c>
       <c r="H17" t="n">
-        <v>8.04507810657866</v>
+        <v>8.04542797048773</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0000380828904933413</v>
+        <v>0.0000380827714305749</v>
       </c>
       <c r="J17" t="n">
-        <v>0.00065180618913432</v>
+        <v>0.000651808380773073</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0000618643555334694</v>
+        <v>0.000061883934364706</v>
       </c>
       <c r="L17" t="n">
-        <v>10.5360539766988</v>
+        <v>10.5327559966002</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00000330404522379352</v>
+        <v>0.00000331796538214253</v>
       </c>
       <c r="N17" t="n">
         <v>0.000718237340383044</v>
@@ -1746,40 +1749,40 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0227089107041727</v>
+        <v>-0.0227158644829518</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0069095212783356</v>
+        <v>0.00691948559257813</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.2866112990165</v>
+        <v>-3.28288341366257</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0125506028573052</v>
+        <v>0.012605093525985</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0235689965788786</v>
+        <v>-0.0235793223074545</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00597073416427113</v>
+        <v>0.0059847469577452</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.94742018827692</v>
+        <v>-3.93990296898671</v>
       </c>
       <c r="I18" t="n">
-        <v>0.00538019893935531</v>
+        <v>0.00542024452856991</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0209702724762419</v>
+        <v>-0.0209744901757597</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00735924508408437</v>
+        <v>0.00737072912069428</v>
       </c>
       <c r="L18" t="n">
-        <v>-2.84951407877334</v>
+        <v>-2.84564658832342</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0239047237065831</v>
+        <v>0.0240014781591069</v>
       </c>
       <c r="N18" t="n">
         <v>-0.0246778354366153</v>
@@ -1807,40 +1810,40 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>0.229939976990687</v>
+        <v>0.230007691832277</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0940063386711648</v>
+        <v>0.0941025367965051</v>
       </c>
       <c r="D19" t="n">
-        <v>2.4460050273314</v>
+        <v>2.44422413743919</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0437843826802274</v>
+        <v>0.0438840351387513</v>
       </c>
       <c r="F19" t="n">
-        <v>0.249527646252262</v>
+        <v>0.24963364209071</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0891380609930898</v>
+        <v>0.0892679701478406</v>
       </c>
       <c r="H19" t="n">
-        <v>2.79933895209596</v>
+        <v>2.79645254257804</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0266948378834279</v>
+        <v>0.0267813873325426</v>
       </c>
       <c r="J19" t="n">
-        <v>0.249708563650494</v>
+        <v>0.249755812823532</v>
       </c>
       <c r="K19" t="n">
-        <v>0.105332650468701</v>
+        <v>0.105439411944455</v>
       </c>
       <c r="L19" t="n">
-        <v>2.37066628950624</v>
+        <v>2.36871401516449</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0494372635687756</v>
+        <v>0.0495342472639761</v>
       </c>
       <c r="N19" t="n">
         <v>0.278763456342498</v>
@@ -1868,40 +1871,40 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0068450624737761</v>
+        <v>0.00680330575052948</v>
       </c>
       <c r="C20" t="n">
-        <v>0.128035209223522</v>
+        <v>0.128053298200469</v>
       </c>
       <c r="D20" t="n">
-        <v>0.053462344579186</v>
+        <v>0.0531287037986229</v>
       </c>
       <c r="E20" t="n">
-        <v>0.959122163194306</v>
+        <v>0.959376992930228</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0128554801414372</v>
+        <v>-0.0128974399467444</v>
       </c>
       <c r="G20" t="n">
-        <v>0.149274365943157</v>
+        <v>0.149323794396055</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0861198107271313</v>
+        <v>-0.0863723025450065</v>
       </c>
       <c r="I20" t="n">
-        <v>0.934210014813465</v>
+        <v>0.934017695446256</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0394677280906597</v>
+        <v>0.039452619038723</v>
       </c>
       <c r="K20" t="n">
-        <v>0.13248871363437</v>
+        <v>0.132481421640289</v>
       </c>
       <c r="L20" t="n">
-        <v>0.297895020700246</v>
+        <v>0.297797370757721</v>
       </c>
       <c r="M20" t="n">
-        <v>0.775965813940082</v>
+        <v>0.776036804028019</v>
       </c>
       <c r="N20" t="n">
         <v>0.0103561531483552</v>
@@ -1929,40 +1932,40 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>0.101156217748793</v>
+        <v>0.101076635226195</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0140971067871652</v>
+        <v>0.0139971383129777</v>
       </c>
       <c r="D21" t="n">
-        <v>7.17567223374453</v>
+        <v>7.22123572448236</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0000204947552167904</v>
+        <v>0.0000193403295661456</v>
       </c>
       <c r="F21" t="n">
-        <v>0.104442773637763</v>
+        <v>0.104362638113513</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0170280922120905</v>
+        <v>0.0169942798203356</v>
       </c>
       <c r="H21" t="n">
-        <v>6.13355696791477</v>
+        <v>6.14104505850438</v>
       </c>
       <c r="I21" t="n">
-        <v>0.000083030491857135</v>
+        <v>0.0000821305652889652</v>
       </c>
       <c r="J21" t="n">
-        <v>0.133526646419461</v>
+        <v>0.133499690724311</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0179330560555581</v>
+        <v>0.0179109957355669</v>
       </c>
       <c r="L21" t="n">
-        <v>7.44583890251522</v>
+        <v>7.45350469037369</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0000144600716493649</v>
+        <v>0.0000143139551024415</v>
       </c>
       <c r="N21" t="n">
         <v>0.156912182852377</v>
@@ -1990,40 +1993,40 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>0.057525104138912</v>
+        <v>0.0574979571629251</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00522647614160915</v>
+        <v>0.00521851588070368</v>
       </c>
       <c r="D22" t="n">
-        <v>11.0064798116922</v>
+        <v>11.0180669135325</v>
       </c>
       <c r="E22" t="n">
-        <v>0.000000238621087866981</v>
+        <v>0.000000235856180071646</v>
       </c>
       <c r="F22" t="n">
-        <v>0.059190179944187</v>
+        <v>0.0591670037918143</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0074468911129334</v>
+        <v>0.00745430335935889</v>
       </c>
       <c r="H22" t="n">
-        <v>7.94830742742946</v>
+        <v>7.93729486706897</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00000622683252353776</v>
+        <v>0.00000630758760590512</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0723787976664705</v>
+        <v>0.0723713049819668</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0123949909414514</v>
+        <v>0.0123998088168772</v>
       </c>
       <c r="L22" t="n">
-        <v>5.83935865773174</v>
+        <v>5.8364855499597</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00010471938049211</v>
+        <v>0.000105135420283119</v>
       </c>
       <c r="N22" t="n">
         <v>0.0771889067597112</v>
@@ -2051,40 +2054,40 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.0895706839318823</v>
+        <v>-0.0895816272997502</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0116084013755694</v>
+        <v>0.0116250073419408</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.7160223043622</v>
+        <v>-7.70594156758569</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00000752999547515403</v>
+        <v>0.00000762522256663472</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0956052027412016</v>
+        <v>-0.0956128389808572</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0116105731562082</v>
+        <v>0.0116388452564539</v>
       </c>
       <c r="H23" t="n">
-        <v>-8.23432241069696</v>
+        <v>-8.21497638933197</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00000401197726327116</v>
+        <v>0.00000410580992281796</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.105824370464187</v>
+        <v>-0.105827268251341</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0166080652945811</v>
+        <v>0.0166287963471885</v>
       </c>
       <c r="L23" t="n">
-        <v>-6.37186623409502</v>
+        <v>-6.36409671763363</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0000456117909995604</v>
+        <v>0.0000461165662168211</v>
       </c>
       <c r="N23" t="n">
         <v>-0.0916099413004292</v>
@@ -2112,40 +2115,40 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.0242795875830196</v>
+        <v>-0.0242614702772165</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0209501289855387</v>
+        <v>0.0209222077711312</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.15892305960403</v>
+        <v>-1.15960373506532</v>
       </c>
       <c r="E24" t="n">
-        <v>0.272334761871366</v>
+        <v>0.272070995207077</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0219654080144911</v>
+        <v>-0.0219372320865997</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0205918458757172</v>
+        <v>0.0205608832104025</v>
       </c>
       <c r="H24" t="n">
-        <v>-1.0667041773265</v>
+        <v>-1.06694016312981</v>
       </c>
       <c r="I24" t="n">
-        <v>0.310227679266123</v>
+        <v>0.310127729772376</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.000403199568556394</v>
+        <v>-0.000394729587272226</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0259594846035532</v>
+        <v>0.0259470192225053</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.015531878799366</v>
+        <v>-0.0152129068810284</v>
       </c>
       <c r="M24" t="n">
-        <v>0.987900697217162</v>
+        <v>0.988149168884501</v>
       </c>
       <c r="N24"/>
       <c r="O24"/>
@@ -2165,40 +2168,40 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0351564514725358</v>
+        <v>0.0349473815229038</v>
       </c>
       <c r="C25" t="n">
-        <v>0.062326023931044</v>
+        <v>0.062240719435001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.564073387890619</v>
+        <v>0.561487428810972</v>
       </c>
       <c r="E25" t="n">
-        <v>0.592257229629387</v>
+        <v>0.593905616997242</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0247088082248134</v>
+        <v>0.0244852525527929</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0638586639034075</v>
+        <v>0.0638276099376168</v>
       </c>
       <c r="H25" t="n">
-        <v>0.386929614784737</v>
+        <v>0.383615375489135</v>
       </c>
       <c r="I25" t="n">
-        <v>0.711609936112414</v>
+        <v>0.713938055544759</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0409437757950767</v>
+        <v>0.0408633146861064</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0892903413159096</v>
+        <v>0.0892933504257184</v>
       </c>
       <c r="L25" t="n">
-        <v>0.458546525768307</v>
+        <v>0.457629985786006</v>
       </c>
       <c r="M25" t="n">
-        <v>0.662117074228077</v>
+        <v>0.662732771621349</v>
       </c>
       <c r="N25"/>
       <c r="O25"/>
@@ -2218,40 +2221,40 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.03668438744328</v>
+        <v>-0.0373737962427615</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0121563232597246</v>
+        <v>0.0125705287356909</v>
       </c>
       <c r="D26" t="n">
-        <v>-3.01772062650059</v>
+        <v>-2.97312842033828</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0113016730714779</v>
+        <v>0.0123198901655378</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0348716249999043</v>
+        <v>-0.0356436803768389</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0118090426630445</v>
+        <v>0.0124559952996827</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.95295952389369</v>
+        <v>-2.86156822632608</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0126773932801096</v>
+        <v>0.0150460712065401</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.0176243020938188</v>
+        <v>-0.017897941646557</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0146956883481554</v>
+        <v>0.0145361329692327</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.19928387675906</v>
+        <v>-1.23127255952047</v>
       </c>
       <c r="M26" t="n">
-        <v>0.254840037444743</v>
+        <v>0.243257080593147</v>
       </c>
       <c r="N26"/>
       <c r="O26"/>
@@ -2271,40 +2274,40 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0581623728021047</v>
+        <v>0.0573635605518226</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0245855738992948</v>
+        <v>0.0236599789358371</v>
       </c>
       <c r="D27" t="n">
-        <v>2.36571141435804</v>
+        <v>2.42449753262188</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0471691864973817</v>
+        <v>0.043427297479488</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0786210065650699</v>
+        <v>0.0777315185951404</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0239459056364869</v>
+        <v>0.0229409181465084</v>
       </c>
       <c r="H27" t="n">
-        <v>3.28327555276395</v>
+        <v>3.38833511800708</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0118851645573544</v>
+        <v>0.0103590265290886</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0768085973025723</v>
+        <v>0.0764966950236761</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0275052887298907</v>
+        <v>0.0260768215774175</v>
       </c>
       <c r="L27" t="n">
-        <v>2.79250285488196</v>
+        <v>2.93351299722517</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0242624325294825</v>
+        <v>0.0198169894602976</v>
       </c>
       <c r="N27"/>
       <c r="O27"/>
@@ -2324,40 +2327,40 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0118143298089466</v>
+        <v>0.0105844439502672</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0271135455287388</v>
+        <v>0.0283779556497944</v>
       </c>
       <c r="D28" t="n">
-        <v>0.435735333707061</v>
+        <v>0.372981199945736</v>
       </c>
       <c r="E28" t="n">
-        <v>0.670696268578068</v>
+        <v>0.71561206553937</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0101445087025178</v>
+        <v>0.00882998167171134</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0320390465809735</v>
+        <v>0.03391983583762</v>
       </c>
       <c r="H28" t="n">
-        <v>0.316629543793671</v>
+        <v>0.260319115752268</v>
       </c>
       <c r="I28" t="n">
-        <v>0.756925401228967</v>
+        <v>0.799002097409884</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.018602637467585</v>
+        <v>-0.0190661072845095</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0399973497646541</v>
+        <v>0.0420408073425937</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.465096752085915</v>
+        <v>-0.453514299312531</v>
       </c>
       <c r="M28" t="n">
-        <v>0.649984213675335</v>
+        <v>0.658081874054979</v>
       </c>
       <c r="N28"/>
       <c r="O28"/>
@@ -2377,40 +2380,40 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0166335091277786</v>
+        <v>0.016408981933838</v>
       </c>
       <c r="C29" t="n">
-        <v>0.110379696533463</v>
+        <v>0.11011072667765</v>
       </c>
       <c r="D29" t="n">
-        <v>0.150693557331316</v>
+        <v>0.149022556011962</v>
       </c>
       <c r="E29" t="n">
-        <v>0.897330522045649</v>
+        <v>0.898450777355367</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0362706290446849</v>
+        <v>0.0360467296080817</v>
       </c>
       <c r="G29" t="n">
-        <v>0.131378303430497</v>
+        <v>0.131320697919802</v>
       </c>
       <c r="H29" t="n">
-        <v>0.276077770054879</v>
+        <v>0.274493893035015</v>
       </c>
       <c r="I29" t="n">
-        <v>0.814860920843475</v>
+        <v>0.815869592934672</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0448026526390682</v>
+        <v>0.0447261103791318</v>
       </c>
       <c r="K29" t="n">
-        <v>0.127343943223541</v>
+        <v>0.127299459239856</v>
       </c>
       <c r="L29" t="n">
-        <v>0.351823977685543</v>
+        <v>0.351345643148881</v>
       </c>
       <c r="M29" t="n">
-        <v>0.767093125896897</v>
+        <v>0.767375281403852</v>
       </c>
       <c r="N29"/>
       <c r="O29"/>
@@ -2430,40 +2433,40 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.0020553893917651</v>
+        <v>-0.00223610518164783</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0119058507451785</v>
+        <v>0.011677347429933</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.172636919087657</v>
+        <v>-0.191490849704098</v>
       </c>
       <c r="E30" t="n">
-        <v>0.865682289888743</v>
+        <v>0.851196205383911</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.0109078747268258</v>
+        <v>-0.0111113987683141</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0129279096033858</v>
+        <v>0.0126428606459065</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.843746209670978</v>
+        <v>-0.878867455674419</v>
       </c>
       <c r="I30" t="n">
-        <v>0.414531185333941</v>
+        <v>0.395912643337948</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.0372448436228783</v>
+        <v>-0.0373154908730793</v>
       </c>
       <c r="K30" t="n">
-        <v>0.026636239456496</v>
+        <v>0.026517107484881</v>
       </c>
       <c r="L30" t="n">
-        <v>-1.3982770985262</v>
+        <v>-1.40722327630776</v>
       </c>
       <c r="M30" t="n">
-        <v>0.186037200988625</v>
+        <v>0.183429701353534</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -2483,40 +2486,40 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.0594867314012014</v>
+        <v>-0.0298792565936507</v>
       </c>
       <c r="C31" t="n">
-        <v>0.139037065861214</v>
+        <v>0.0805037632776469</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.427848006089114</v>
+        <v>-0.371153538383057</v>
       </c>
       <c r="E31" t="n">
-        <v>0.713013213526596</v>
+        <v>0.726678332376531</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.104359240327944</v>
+        <v>-0.0326499842090893</v>
       </c>
       <c r="G31" t="n">
-        <v>0.146438463010791</v>
+        <v>0.0825318945821354</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.712649109955861</v>
+        <v>-0.395604443280969</v>
       </c>
       <c r="I31" t="n">
-        <v>0.554655352496692</v>
+        <v>0.709801183265089</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0549496162186364</v>
+        <v>-0.0114919615888085</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0593294694403541</v>
+        <v>0.0889071802572413</v>
       </c>
       <c r="L31" t="n">
-        <v>0.926177441614898</v>
+        <v>-0.129257969441366</v>
       </c>
       <c r="M31" t="n">
-        <v>0.459369781576291</v>
+        <v>0.902529329418786</v>
       </c>
       <c r="N31"/>
       <c r="O31"/>
@@ -2536,40 +2539,40 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>0.059582921932447</v>
+        <v>-0.0598387339826718</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0525704823234956</v>
+        <v>0.139519817192257</v>
       </c>
       <c r="D32" t="n">
-        <v>1.1333911978551</v>
+        <v>-0.4288905704357</v>
       </c>
       <c r="E32" t="n">
-        <v>0.280960634710397</v>
+        <v>0.712372868831784</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0789066749096877</v>
+        <v>-0.104684528724341</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0563315146734295</v>
+        <v>0.146896951054194</v>
       </c>
       <c r="H32" t="n">
-        <v>1.40075542735062</v>
+        <v>-0.712639220712757</v>
       </c>
       <c r="I32" t="n">
-        <v>0.188760571071388</v>
+        <v>0.554659617985202</v>
       </c>
       <c r="J32" t="n">
-        <v>0.110982882904628</v>
+        <v>0.0548747389859378</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0670270485353689</v>
+        <v>0.0590281096745762</v>
       </c>
       <c r="L32" t="n">
-        <v>1.6557924797489</v>
+        <v>0.929637409845309</v>
       </c>
       <c r="M32" t="n">
-        <v>0.128295991007389</v>
+        <v>0.457966162952951</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
@@ -2589,40 +2592,40 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0342667241009508</v>
+        <v>0.059099403814125</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02602844980604</v>
+        <v>0.052740439977115</v>
       </c>
       <c r="D33" t="n">
-        <v>1.31651037062527</v>
+        <v>1.12057092886918</v>
       </c>
       <c r="E33" t="n">
-        <v>0.223220555312807</v>
+        <v>0.286140007119233</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0491566337405246</v>
+        <v>0.0783456372071774</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0318010363622477</v>
+        <v>0.0565464310672036</v>
       </c>
       <c r="H33" t="n">
-        <v>1.54575571627849</v>
+        <v>1.3855098496679</v>
       </c>
       <c r="I33" t="n">
-        <v>0.158998322751636</v>
+        <v>0.193227555035201</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0409538877552164</v>
+        <v>0.110793827440024</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0464393880900782</v>
+        <v>0.0672934201080777</v>
       </c>
       <c r="L33" t="n">
-        <v>0.881878281336919</v>
+        <v>1.64642883750123</v>
       </c>
       <c r="M33" t="n">
-        <v>0.40445763671168</v>
+        <v>0.130214403500676</v>
       </c>
       <c r="N33"/>
       <c r="O33"/>
@@ -2642,40 +2645,40 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0293997877565411</v>
+        <v>0.0340279122119953</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0569920923996977</v>
+        <v>0.0262559047588121</v>
       </c>
       <c r="D34" t="n">
-        <v>0.515857314912289</v>
+        <v>1.29600988899744</v>
       </c>
       <c r="E34" t="n">
-        <v>0.614872086072643</v>
+        <v>0.230067938931126</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0391729835611239</v>
+        <v>0.0489162497679698</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0578013963000357</v>
+        <v>0.0319746984170278</v>
       </c>
       <c r="H34" t="n">
-        <v>0.677716907698642</v>
+        <v>1.52984241258457</v>
       </c>
       <c r="I34" t="n">
-        <v>0.510151532783432</v>
+        <v>0.163030100263997</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0334375805957179</v>
+        <v>0.0408806132350515</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0522696124624924</v>
+        <v>0.0465172464280108</v>
       </c>
       <c r="L34" t="n">
-        <v>0.639713573918535</v>
+        <v>0.878827023829056</v>
       </c>
       <c r="M34" t="n">
-        <v>0.535995539322359</v>
+        <v>0.406136959519975</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
@@ -2695,40 +2698,40 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0730275042113586</v>
+        <v>0.0289438835024079</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0661528529781325</v>
+        <v>0.0569561312991013</v>
       </c>
       <c r="D35" t="n">
-        <v>1.10392070672294</v>
+        <v>0.508178537450359</v>
       </c>
       <c r="E35" t="n">
-        <v>0.294822556823186</v>
+        <v>0.620154185350763</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0698150656048912</v>
+        <v>0.0386622036520402</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0756448524998713</v>
+        <v>0.0577741877335034</v>
       </c>
       <c r="H35" t="n">
-        <v>0.922932140095189</v>
+        <v>0.669195105440139</v>
       </c>
       <c r="I35" t="n">
-        <v>0.377757536603228</v>
+        <v>0.515475228453825</v>
       </c>
       <c r="J35" t="n">
-        <v>0.144277736084456</v>
+        <v>0.0332599304220743</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0808818933117888</v>
+        <v>0.052591626860993</v>
       </c>
       <c r="L35" t="n">
-        <v>1.78380760114362</v>
+        <v>0.632418740534209</v>
       </c>
       <c r="M35" t="n">
-        <v>0.107985124486556</v>
+        <v>0.540683111920851</v>
       </c>
       <c r="N35"/>
       <c r="O35"/>
@@ -2748,40 +2751,40 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0624666949975091</v>
+        <v>0.0724347704300478</v>
       </c>
       <c r="C36" t="n">
-        <v>0.100063878042276</v>
+        <v>0.0670686230447991</v>
       </c>
       <c r="D36" t="n">
-        <v>0.624268179683357</v>
+        <v>1.08000980401319</v>
       </c>
       <c r="E36" t="n">
-        <v>0.544784613147311</v>
+        <v>0.304815763691677</v>
       </c>
       <c r="F36" t="n">
-        <v>0.144358312077765</v>
+        <v>0.0691766708317332</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0972996360770824</v>
+        <v>0.0762792091863604</v>
       </c>
       <c r="H36" t="n">
-        <v>1.48364698880685</v>
+        <v>0.906887624683224</v>
       </c>
       <c r="I36" t="n">
-        <v>0.16475975738325</v>
+        <v>0.385750957850861</v>
       </c>
       <c r="J36" t="n">
-        <v>0.240988308015952</v>
+        <v>0.144065687824761</v>
       </c>
       <c r="K36" t="n">
-        <v>0.107617657032896</v>
+        <v>0.0813523169893726</v>
       </c>
       <c r="L36" t="n">
-        <v>2.23930082349115</v>
+        <v>1.77088610572187</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0494412270521101</v>
+        <v>0.110174188099124</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
@@ -2801,40 +2804,40 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>0.249933111051236</v>
+        <v>0.0619860115495743</v>
       </c>
       <c r="C37" t="n">
-        <v>0.141298082254015</v>
+        <v>0.100783561504746</v>
       </c>
       <c r="D37" t="n">
-        <v>1.76883583318509</v>
+        <v>0.615040891828928</v>
       </c>
       <c r="E37" t="n">
-        <v>0.158493506004145</v>
+        <v>0.550654167971066</v>
       </c>
       <c r="F37" t="n">
-        <v>0.509390706640293</v>
+        <v>0.143774919067063</v>
       </c>
       <c r="G37" t="n">
-        <v>0.135326784007917</v>
+        <v>0.097617107238778</v>
       </c>
       <c r="H37" t="n">
-        <v>3.76415290125044</v>
+        <v>1.47284551994949</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0204465580662435</v>
+        <v>0.167630055326124</v>
       </c>
       <c r="J37" t="n">
-        <v>0.596997099531092</v>
+        <v>0.240800308902115</v>
       </c>
       <c r="K37" t="n">
-        <v>0.092317653542535</v>
+        <v>0.107798131618676</v>
       </c>
       <c r="L37" t="n">
-        <v>6.46677072718305</v>
+        <v>2.23380781546308</v>
       </c>
       <c r="M37" t="n">
-        <v>0.00416976211837334</v>
+        <v>0.0499439799275733</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
@@ -2854,40 +2857,40 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>0.269643604121552</v>
+        <v>0.249512242495061</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0200854078535436</v>
+        <v>0.142069658913463</v>
       </c>
       <c r="D38" t="n">
-        <v>13.4248508214376</v>
+        <v>1.75626692147577</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00478487165807807</v>
+        <v>0.160504862596625</v>
       </c>
       <c r="F38" t="n">
-        <v>0.224534101202678</v>
+        <v>0.508796691135358</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0434170699503291</v>
+        <v>0.13583251053739</v>
       </c>
       <c r="H38" t="n">
-        <v>5.17156273925334</v>
+        <v>3.74576520099954</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0359680937351075</v>
+        <v>0.0206127492424559</v>
       </c>
       <c r="J38" t="n">
-        <v>0.219620162388032</v>
+        <v>0.596809156387432</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0469444321388013</v>
+        <v>0.0925875541643819</v>
       </c>
       <c r="L38" t="n">
-        <v>4.67830054347398</v>
+        <v>6.44588964222821</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0426897186676979</v>
+        <v>0.00415861886070271</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -2907,40 +2910,40 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>0.32398763883349</v>
+        <v>0.26963045501825</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0367127383872253</v>
+        <v>0.0200914686033352</v>
       </c>
       <c r="D39" t="n">
-        <v>8.8249379661155</v>
+        <v>13.420146647393</v>
       </c>
       <c r="E39" t="n">
-        <v>0.00216424650695482</v>
+        <v>0.00478876122660677</v>
       </c>
       <c r="F39" t="n">
-        <v>0.274273208035082</v>
+        <v>0.224539604056706</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0623466705750052</v>
+        <v>0.0434060394238899</v>
       </c>
       <c r="H39" t="n">
-        <v>4.39916366833289</v>
+        <v>5.17300373489324</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0198448175214729</v>
+        <v>0.0359489017861398</v>
       </c>
       <c r="J39" t="n">
-        <v>0.27445855631564</v>
+        <v>0.219619656806767</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0683918793862882</v>
+        <v>0.0469460968020942</v>
       </c>
       <c r="L39" t="n">
-        <v>4.01302842937617</v>
+        <v>4.67812388605158</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0255956271431248</v>
+        <v>0.0426937044839957</v>
       </c>
       <c r="N39"/>
       <c r="O39"/>
@@ -2960,40 +2963,40 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>0.38543714284868</v>
+        <v>0.323930165652903</v>
       </c>
       <c r="C40" t="n">
-        <v>0.114072931854348</v>
+        <v>0.036730240971072</v>
       </c>
       <c r="D40" t="n">
-        <v>3.37886592886748</v>
+        <v>8.81916799587632</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0103563487142166</v>
+        <v>0.00216936525926532</v>
       </c>
       <c r="F40" t="n">
-        <v>0.32996111017619</v>
+        <v>0.27425587024902</v>
       </c>
       <c r="G40" t="n">
-        <v>0.144428273814725</v>
+        <v>0.0623417437840285</v>
       </c>
       <c r="H40" t="n">
-        <v>2.28460190973042</v>
+        <v>4.39923322002556</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0531089438040417</v>
+        <v>0.0198450677102037</v>
       </c>
       <c r="J40" t="n">
-        <v>0.257704412826578</v>
+        <v>0.274447177636903</v>
       </c>
       <c r="K40" t="n">
-        <v>0.15762163354037</v>
+        <v>0.0683929473890552</v>
       </c>
       <c r="L40" t="n">
-        <v>1.63495585623768</v>
+        <v>4.01279939107906</v>
       </c>
       <c r="M40" t="n">
-        <v>0.142389847323336</v>
+        <v>0.0256028077603894</v>
       </c>
       <c r="N40"/>
       <c r="O40"/>
@@ -3013,40 +3016,40 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>0.293686236621176</v>
+        <v>0.386330854993257</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0651622370411055</v>
+        <v>0.114125739650261</v>
       </c>
       <c r="D41" t="n">
-        <v>4.50700052602419</v>
+        <v>3.38513341667858</v>
       </c>
       <c r="E41" t="n">
-        <v>0.00338363187979899</v>
+        <v>0.0102690301134592</v>
       </c>
       <c r="F41" t="n">
-        <v>0.226373689203233</v>
+        <v>0.330962486441139</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0841274741431099</v>
+        <v>0.144955072541248</v>
       </c>
       <c r="H41" t="n">
-        <v>2.69084138694272</v>
+        <v>2.28320734582752</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0339740633881815</v>
+        <v>0.0532427852370678</v>
       </c>
       <c r="J41" t="n">
-        <v>0.174389756876078</v>
+        <v>0.258051224089596</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0923819266857583</v>
+        <v>0.158536735370957</v>
       </c>
       <c r="L41" t="n">
-        <v>1.88770426351112</v>
+        <v>1.62770618106767</v>
       </c>
       <c r="M41" t="n">
-        <v>0.105328737006613</v>
+        <v>0.143955145339469</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
@@ -3066,40 +3069,40 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>0.033642508242847</v>
+        <v>0.294426712444374</v>
       </c>
       <c r="C42" t="n">
-        <v>0.197760251427178</v>
+        <v>0.0643438052187251</v>
       </c>
       <c r="D42" t="n">
-        <v>0.170117644976981</v>
+        <v>4.57583618879119</v>
       </c>
       <c r="E42" t="n">
-        <v>0.869133155840801</v>
+        <v>0.00314454195871265</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.0473068925307072</v>
+        <v>0.227215527122746</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2473706563016</v>
+        <v>0.0833342193826247</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.191238901323161</v>
+        <v>2.72655733510261</v>
       </c>
       <c r="I42" t="n">
-        <v>0.853100987302965</v>
+        <v>0.0323959406581478</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.142920708257952</v>
+        <v>0.174683489084681</v>
       </c>
       <c r="K42" t="n">
-        <v>0.267132130943206</v>
+        <v>0.0922501017225434</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.535018785472641</v>
+        <v>1.89358586953182</v>
       </c>
       <c r="M42" t="n">
-        <v>0.607186752316413</v>
+        <v>0.104530025747987</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
@@ -3119,40 +3122,40 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>0.000105591309708117</v>
+        <v>0.034447177236862</v>
       </c>
       <c r="C43" t="n">
-        <v>0.000138222635496956</v>
+        <v>0.196867390141219</v>
       </c>
       <c r="D43" t="n">
-        <v>0.763921982303994</v>
+        <v>0.174976552552213</v>
       </c>
       <c r="E43" t="n">
-        <v>0.469827301162854</v>
+        <v>0.865438876115025</v>
       </c>
       <c r="F43" t="n">
-        <v>0.000252827307068029</v>
+        <v>-0.0464170152492576</v>
       </c>
       <c r="G43" t="n">
-        <v>0.000144156448649945</v>
+        <v>0.246555706315503</v>
       </c>
       <c r="H43" t="n">
-        <v>1.75383973062467</v>
+        <v>-0.188261776386795</v>
       </c>
       <c r="I43" t="n">
-        <v>0.122914149857738</v>
+        <v>0.855359104865205</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0000316470507479715</v>
+        <v>-0.142614018865268</v>
       </c>
       <c r="K43" t="n">
-        <v>0.000202602337306896</v>
+        <v>0.26639498827244</v>
       </c>
       <c r="L43" t="n">
-        <v>0.15620279197487</v>
+        <v>-0.535347980043146</v>
       </c>
       <c r="M43" t="n">
-        <v>0.880248741472499</v>
+        <v>0.606974520587117</v>
       </c>
       <c r="N43"/>
       <c r="O43"/>
@@ -3172,40 +3175,40 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>0.00963751513511107</v>
+        <v>0.000105582488058278</v>
       </c>
       <c r="C44" t="n">
-        <v>0.00319528433235452</v>
+        <v>0.000138316281007536</v>
       </c>
       <c r="D44" t="n">
-        <v>3.0161682444108</v>
+        <v>0.763340998537443</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01165844411382</v>
+        <v>0.470152113381062</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00449179315646888</v>
+        <v>0.000252823727698549</v>
       </c>
       <c r="G44" t="n">
-        <v>0.003950993879817</v>
+        <v>0.000144233490405689</v>
       </c>
       <c r="H44" t="n">
-        <v>1.13687676901107</v>
+        <v>1.75287810748686</v>
       </c>
       <c r="I44" t="n">
-        <v>0.279629463195828</v>
+        <v>0.123086699850995</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.00508161914381736</v>
+        <v>0.0000316598334741975</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0050748547938458</v>
+        <v>0.000202600311366044</v>
       </c>
       <c r="L44" t="n">
-        <v>-1.00133291497912</v>
+        <v>0.156267447274534</v>
       </c>
       <c r="M44" t="n">
-        <v>0.338023739056777</v>
+        <v>0.880199639411769</v>
       </c>
       <c r="N44"/>
       <c r="O44"/>
@@ -3225,40 +3228,40 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0066679619621039</v>
+        <v>0.00967861550252091</v>
       </c>
       <c r="C45" t="n">
-        <v>0.00232758083892641</v>
+        <v>0.00320523195239593</v>
       </c>
       <c r="D45" t="n">
-        <v>2.86476063498593</v>
+        <v>3.01963029392805</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0599378952583947</v>
+        <v>0.0115883448062575</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0100252258527069</v>
+        <v>0.00453572641535798</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00564793356941266</v>
+        <v>0.00393207212667437</v>
       </c>
       <c r="H45" t="n">
-        <v>1.77502545479647</v>
+        <v>1.15352065507358</v>
       </c>
       <c r="I45" t="n">
-        <v>0.170776791390749</v>
+        <v>0.273027671508776</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0130210426577412</v>
+        <v>-0.0050664005135776</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0054206235002026</v>
+        <v>0.00505381901780242</v>
       </c>
       <c r="L45" t="n">
-        <v>2.40213006073094</v>
+        <v>-1.00248950263768</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0923647735053868</v>
+        <v>0.337492675098446</v>
       </c>
       <c r="N45"/>
       <c r="O45"/>
@@ -3278,33 +3281,41 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.00580568216472635</v>
+        <v>0.00665783818140596</v>
       </c>
       <c r="C46" t="n">
-        <v>0.011237084378998</v>
+        <v>0.00231728305729394</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.516653783927894</v>
+        <v>2.87312253910871</v>
       </c>
       <c r="E46" t="n">
-        <v>0.620859175873778</v>
+        <v>0.0595186487115374</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.0112833634232704</v>
+        <v>0.0100161491881362</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0139902411379013</v>
+        <v>0.00564710326752948</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.806516722052945</v>
+        <v>1.77367912602704</v>
       </c>
       <c r="I46" t="n">
-        <v>0.445061559870322</v>
-      </c>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
+        <v>0.17102452226021</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.0130178802835231</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.00542669536857649</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.3988596004308</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0926559196632516</v>
+      </c>
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46"/>
@@ -3323,28 +3334,28 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.0674613681933635</v>
+        <v>-0.00582392821727115</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0618044717160564</v>
+        <v>0.0112329828383756</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.09152891886684</v>
+        <v>-0.518466759993142</v>
       </c>
       <c r="E47" t="n">
-        <v>0.297286926138348</v>
+        <v>0.61965843809977</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.0379880282656407</v>
+        <v>-0.0112939503653299</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0702169710061752</v>
+        <v>0.0139850309107715</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.541009213603074</v>
+        <v>-0.807574215415648</v>
       </c>
       <c r="I47" t="n">
-        <v>0.59910207434166</v>
+        <v>0.444493749579289</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
@@ -3368,28 +3379,28 @@
         <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.0248103518490143</v>
+        <v>-0.06740271762012</v>
       </c>
       <c r="C48" t="n">
-        <v>0.00996487673500214</v>
+        <v>0.061857184809781</v>
       </c>
       <c r="D48" t="n">
-        <v>-2.48978010554477</v>
+        <v>-1.08965058509197</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0375935734768599</v>
+        <v>0.298088435433453</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.0204118731659369</v>
+        <v>-0.0379602705295448</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0110477135860748</v>
+        <v>0.0702740469740906</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.84761063969519</v>
+        <v>-0.540174817931582</v>
       </c>
       <c r="I48" t="n">
-        <v>0.104277176983741</v>
+        <v>0.59966102489957</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
@@ -3413,28 +3424,28 @@
         <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.00253102074754555</v>
+        <v>-0.0248139134275648</v>
       </c>
       <c r="C49" t="n">
-        <v>0.00653507441632709</v>
+        <v>0.00997365968307303</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.387297922916089</v>
+        <v>-2.48794466786131</v>
       </c>
       <c r="E49" t="n">
-        <v>0.70516156769739</v>
+        <v>0.0377081033635983</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.00104445394888001</v>
+        <v>-0.0204157802889205</v>
       </c>
       <c r="G49" t="n">
-        <v>0.00851863472955002</v>
+        <v>0.0110550736527184</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.122608138749856</v>
+        <v>-1.84673399112998</v>
       </c>
       <c r="I49" t="n">
-        <v>0.904376243909855</v>
+        <v>0.104423418226007</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
@@ -3458,28 +3469,28 @@
         <v>73</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.00229300368047047</v>
+        <v>-0.00252744720690678</v>
       </c>
       <c r="C50" t="n">
-        <v>0.000854989278864902</v>
+        <v>0.00653939786288246</v>
       </c>
       <c r="D50" t="n">
-        <v>-2.68190927904347</v>
+        <v>-0.386495402161189</v>
       </c>
       <c r="E50" t="n">
-        <v>0.200412286234712</v>
+        <v>0.705741682384841</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.00232235777764405</v>
+        <v>-0.00104317231950411</v>
       </c>
       <c r="G50" t="n">
-        <v>0.002082704647729</v>
+        <v>0.00852488947314025</v>
       </c>
       <c r="H50" t="n">
-        <v>-1.1150682263932</v>
+        <v>-0.122367840989714</v>
       </c>
       <c r="I50" t="n">
-        <v>0.447498234502079</v>
+        <v>0.904562679087136</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
@@ -3503,28 +3514,28 @@
         <v>74</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0329049774006295</v>
+        <v>-0.0022931947256558</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0166484061819616</v>
+        <v>0.000854625367037989</v>
       </c>
       <c r="D51" t="n">
-        <v>1.97646411560295</v>
+        <v>-2.68327481736669</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0783162238036946</v>
+        <v>0.200306045562837</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0438003915349919</v>
+        <v>-0.00232214241279147</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0153570266706164</v>
+        <v>0.00207980631681866</v>
       </c>
       <c r="H51" t="n">
-        <v>2.85214009680651</v>
+        <v>-1.11651858829984</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0181177852943745</v>
+        <v>0.447068465629183</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
@@ -3548,28 +3559,28 @@
         <v>75</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0261958954306029</v>
+        <v>0.0329039493372047</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0272941999041211</v>
+        <v>0.0166752518827373</v>
       </c>
       <c r="D52" t="n">
-        <v>0.959760517715253</v>
+        <v>1.97322052875661</v>
       </c>
       <c r="E52" t="n">
-        <v>0.356795990519547</v>
+        <v>0.0787364782107068</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0473138238965926</v>
+        <v>0.0438085214221587</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0347322733114309</v>
+        <v>0.0153923732715319</v>
       </c>
       <c r="H52" t="n">
-        <v>1.36224379764456</v>
+        <v>2.84611870108311</v>
       </c>
       <c r="I52" t="n">
-        <v>0.200798606686217</v>
+        <v>0.0183111683446175</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
@@ -3593,28 +3604,28 @@
         <v>76</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0000015811529482178</v>
+        <v>0.026226196437164</v>
       </c>
       <c r="C53" t="n">
-        <v>0.00000528779658107026</v>
+        <v>0.027331033844107</v>
       </c>
       <c r="D53" t="n">
-        <v>0.299019246292142</v>
+        <v>0.959575718458185</v>
       </c>
       <c r="E53" t="n">
-        <v>0.770512117819055</v>
+        <v>0.356907525517724</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00000196077208501403</v>
+        <v>0.0473366266961243</v>
       </c>
       <c r="G53" t="n">
-        <v>0.00000742916927364784</v>
+        <v>0.0347491515524801</v>
       </c>
       <c r="H53" t="n">
-        <v>0.263928847599303</v>
+        <v>1.36223834485956</v>
       </c>
       <c r="I53" t="n">
-        <v>0.796695934267843</v>
+        <v>0.200822996910799</v>
       </c>
       <c r="J53"/>
       <c r="K53"/>
@@ -3638,28 +3649,28 @@
         <v>77</v>
       </c>
       <c r="B54" t="n">
-        <v>0.000010736710118478</v>
+        <v>0.00000157212539090977</v>
       </c>
       <c r="C54" t="n">
-        <v>0.00000303324632293947</v>
+        <v>0.00000528735347988237</v>
       </c>
       <c r="D54" t="n">
-        <v>3.53967629904623</v>
+        <v>0.297336918534288</v>
       </c>
       <c r="E54" t="n">
-        <v>0.00448616278440882</v>
+        <v>0.771764085157163</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0000115551960819932</v>
+        <v>0.00000195278012318004</v>
       </c>
       <c r="G54" t="n">
-        <v>0.00000394789459813322</v>
+        <v>0.00000742883626589321</v>
       </c>
       <c r="H54" t="n">
-        <v>2.92692618679768</v>
+        <v>0.262864875908696</v>
       </c>
       <c r="I54" t="n">
-        <v>0.014214702382335</v>
+        <v>0.797496240812633</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
@@ -3683,21 +3694,29 @@
         <v>78</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.384437159404623</v>
+        <v>0.0000107327003622442</v>
       </c>
       <c r="C55" t="n">
-        <v>0.211345850241023</v>
+        <v>0.00000303359928408304</v>
       </c>
       <c r="D55" t="n">
-        <v>-1.81899554198109</v>
+        <v>3.53794267375967</v>
       </c>
       <c r="E55" t="n">
-        <v>0.11216356169709</v>
-      </c>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
+        <v>0.00449903381133013</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0000115531715125556</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0000039495155778862</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2.92521229115874</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0142567465082962</v>
+      </c>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
@@ -3720,16 +3739,16 @@
         <v>79</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.144078469889444</v>
+        <v>-0.384415718956067</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0416665591322928</v>
+        <v>0.211269725786353</v>
       </c>
       <c r="D56" t="n">
-        <v>-3.4578922015612</v>
+        <v>-1.81954947650572</v>
       </c>
       <c r="E56" t="n">
-        <v>0.00622620017979647</v>
+        <v>0.112075925207924</v>
       </c>
       <c r="F56"/>
       <c r="G56"/>
@@ -3757,16 +3776,16 @@
         <v>80</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.218028546418732</v>
+        <v>-0.144051190222146</v>
       </c>
       <c r="C57" t="n">
-        <v>0.153982527837545</v>
+        <v>0.0416927289989122</v>
       </c>
       <c r="D57" t="n">
-        <v>-1.4159304271765</v>
+        <v>-3.45506743456165</v>
       </c>
       <c r="E57" t="n">
-        <v>0.182355446328273</v>
+        <v>0.00625638698285556</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
@@ -3794,16 +3813,16 @@
         <v>81</v>
       </c>
       <c r="B58" t="n">
-        <v>0.209062016075768</v>
+        <v>-0.218311730958258</v>
       </c>
       <c r="C58" t="n">
-        <v>0.11690438230667</v>
+        <v>0.153859871370009</v>
       </c>
       <c r="D58" t="n">
-        <v>1.78831633126758</v>
+        <v>-1.41889973658728</v>
       </c>
       <c r="E58" t="n">
-        <v>0.10327881452845</v>
+        <v>0.181508214933809</v>
       </c>
       <c r="F58"/>
       <c r="G58"/>
@@ -3831,16 +3850,16 @@
         <v>82</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.546340503747924</v>
+        <v>0.209399376800589</v>
       </c>
       <c r="C59" t="n">
-        <v>0.155149353025329</v>
+        <v>0.117231292978378</v>
       </c>
       <c r="D59" t="n">
-        <v>-3.52138435059238</v>
+        <v>1.78620717626317</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0184445038068536</v>
+        <v>0.10367430174289</v>
       </c>
       <c r="F59"/>
       <c r="G59"/>
@@ -3863,6 +3882,43 @@
       <c r="X59"/>
       <c r="Y59"/>
     </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.546097862440819</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.154919147771285</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-3.52505077840378</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0183775323195512</v>
+      </c>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Analysis/Output/Reg2cts_Rob.xlsx
+++ b/Analysis/Output/Reg2cts_Rob.xlsx
@@ -677,76 +677,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>2.66963821992272</v>
+        <v>1.57076378422843</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8520422366244</v>
+        <v>14.1194058293842</v>
       </c>
       <c r="D2" t="n">
-        <v>0.192725243997906</v>
+        <v>0.111248575415226</v>
       </c>
       <c r="E2" t="n">
-        <v>0.850631750907419</v>
+        <v>0.913401583030347</v>
       </c>
       <c r="F2" t="n">
-        <v>0.721277734987765</v>
+        <v>0.246030682774803</v>
       </c>
       <c r="G2" t="n">
-        <v>19.3665091737462</v>
+        <v>19.1945420748638</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03724355941057</v>
+        <v>0.0128177417213299</v>
       </c>
       <c r="I2" t="n">
-        <v>0.970944548243763</v>
+        <v>0.989997682315297</v>
       </c>
       <c r="J2" t="n">
-        <v>12.3238707783815</v>
+        <v>12.3247707575433</v>
       </c>
       <c r="K2" t="n">
-        <v>0.113074406730801</v>
+        <v>0.118929835753016</v>
       </c>
       <c r="L2" t="n">
-        <v>108.989037702592</v>
+        <v>103.630604377007</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00000000000000942476441365345</v>
+        <v>0.0000000000000112304318168007</v>
       </c>
       <c r="N2" t="n">
-        <v>12.7322886089173</v>
+        <v>12.7324704197893</v>
       </c>
       <c r="O2" t="n">
-        <v>0.124732199488247</v>
+        <v>0.139409085877251</v>
       </c>
       <c r="P2" t="n">
-        <v>102.076999052013</v>
+        <v>91.3317115571658</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.000000000000000253970549060615</v>
+        <v>0.000000000000000331109300294755</v>
       </c>
       <c r="R2" t="n">
-        <v>13.136293457219</v>
+        <v>13.1311553081888</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0424313112964139</v>
+        <v>0.0433677079495495</v>
       </c>
       <c r="T2" t="n">
-        <v>309.589618040609</v>
+        <v>302.786472447761</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00000000000000000000046953408371703</v>
+        <v>0.000000000000000000000582439346228936</v>
       </c>
       <c r="V2" t="n">
-        <v>13.252424721957</v>
+        <v>13.2384482848279</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0595194472459399</v>
+        <v>0.0512028602799419</v>
       </c>
       <c r="X2" t="n">
-        <v>222.657053033385</v>
+        <v>258.548999263892</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.00000000000000000000348080402889756</v>
+        <v>0.000000000000000000000409472792389334</v>
       </c>
     </row>
     <row r="3">
@@ -754,76 +754,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0109819479172739</v>
+        <v>0.00663909830126552</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0109760685158341</v>
+        <v>0.0108645694427629</v>
       </c>
       <c r="D3" t="n">
-        <v>1.00053565640842</v>
+        <v>0.611077902004479</v>
       </c>
       <c r="E3" t="n">
-        <v>0.341233307313337</v>
+        <v>0.555175458349891</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00115135027586443</v>
+        <v>0.000324290628228811</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0110103709550366</v>
+        <v>0.0110134704575029</v>
       </c>
       <c r="H3" t="n">
-        <v>0.104569617187853</v>
+        <v>0.0294449083492922</v>
       </c>
       <c r="I3" t="n">
-        <v>0.918836001500537</v>
+        <v>0.977105801289737</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.0023587617238819</v>
+        <v>-0.002984426843591</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0149446605549042</v>
+        <v>0.0146542424886238</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.157833074576449</v>
+        <v>-0.203656166185856</v>
       </c>
       <c r="M3" t="n">
-        <v>0.87780539277826</v>
+        <v>0.842821677206534</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.0199775440681942</v>
+        <v>-0.0211196258494885</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0178358955446253</v>
+        <v>0.0174140060443276</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.12007518872324</v>
+        <v>-1.21279536688618</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.289500991300563</v>
+        <v>0.253871985609885</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0375823053447603</v>
+        <v>-0.0396143653236384</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0348952373237903</v>
+        <v>0.036157801559622</v>
       </c>
       <c r="T3" t="n">
-        <v>-1.07700386147361</v>
+        <v>-1.09559662410107</v>
       </c>
       <c r="U3" t="n">
-        <v>0.307399950579346</v>
+        <v>0.29967818948755</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.0165841459023671</v>
+        <v>0.00236571744851758</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0270076724651915</v>
+        <v>0.0274407489185927</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.614053133373169</v>
+        <v>0.0862118397546604</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.551874797576009</v>
+        <v>0.93286819975659</v>
       </c>
     </row>
     <row r="4">
@@ -831,64 +831,64 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.00000674586049596123</v>
+        <v>0.0000000701749077181736</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0000605705066868319</v>
+        <v>0.0000551800848703746</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.111372033435999</v>
+        <v>0.00127174338138522</v>
       </c>
       <c r="E4" t="n">
-        <v>0.915920312498469</v>
+        <v>0.999036944939867</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0000181955635973527</v>
+        <v>0.00000744174820629739</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0000533913576708769</v>
+        <v>0.0000458559422974967</v>
       </c>
       <c r="H4" t="n">
-        <v>0.340796046234983</v>
+        <v>0.162285362233274</v>
       </c>
       <c r="I4" t="n">
-        <v>0.747921143174372</v>
+        <v>0.877723613044885</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0000480688843566066</v>
+        <v>0.0000391726847633002</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0000957786224584158</v>
+        <v>0.0000889862546544473</v>
       </c>
       <c r="L4" t="n">
-        <v>0.501874876906657</v>
+        <v>0.440210512459661</v>
       </c>
       <c r="M4" t="n">
-        <v>0.638318595521349</v>
+        <v>0.678989788862418</v>
       </c>
       <c r="N4" t="n">
-        <v>0.000258044327830906</v>
+        <v>0.00026466731346922</v>
       </c>
       <c r="O4" t="n">
-        <v>0.000128128506052453</v>
+        <v>0.000122362775130683</v>
       </c>
       <c r="P4" t="n">
-        <v>2.01394939956038</v>
+        <v>2.16297246598532</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.103199820544333</v>
+        <v>0.0847195778544399</v>
       </c>
       <c r="R4" t="n">
-        <v>0.000958939774287463</v>
+        <v>0.00103007263782878</v>
       </c>
       <c r="S4" t="n">
-        <v>0.000278839188037823</v>
+        <v>0.000327251347516458</v>
       </c>
       <c r="T4" t="n">
-        <v>3.43904234205914</v>
+        <v>3.14764979776586</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0207221902375036</v>
+        <v>0.027903246276479</v>
       </c>
       <c r="V4"/>
       <c r="W4"/>
@@ -900,64 +900,64 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0527398303195802</v>
+        <v>0.0421247656651114</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0129173425192131</v>
+        <v>0.0141813212878226</v>
       </c>
       <c r="D5" t="n">
-        <v>4.08287000527668</v>
+        <v>2.97044011697864</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00187181587496598</v>
+        <v>0.0128290743308983</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0453525398553568</v>
+        <v>0.0474776350954371</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0111250305913233</v>
+        <v>0.0128324387643661</v>
       </c>
       <c r="H5" t="n">
-        <v>4.076621586167</v>
+        <v>3.6998138831783</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00190754691575779</v>
+        <v>0.00354663838588354</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0403341349482035</v>
+        <v>0.0416740030055535</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0124834407894014</v>
+        <v>0.0141751734890369</v>
       </c>
       <c r="L5" t="n">
-        <v>3.23101103523059</v>
+        <v>2.93992895662155</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00820403682336801</v>
+        <v>0.0135373326114084</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0576635029515031</v>
+        <v>0.0549480034140824</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0177269103791764</v>
+        <v>0.0148418197145689</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25287947634912</v>
+        <v>3.702241670551</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.00787567524715836</v>
+        <v>0.00352127575995369</v>
       </c>
       <c r="R5" t="n">
-        <v>0.121533155655213</v>
+        <v>0.0726931130391353</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0765738795366551</v>
+        <v>0.0325251218923231</v>
       </c>
       <c r="T5" t="n">
-        <v>1.58713593186873</v>
+        <v>2.23498356992455</v>
       </c>
       <c r="U5" t="n">
-        <v>0.141560684777406</v>
+        <v>0.04725908186327</v>
       </c>
       <c r="V5"/>
       <c r="W5"/>
@@ -969,64 +969,64 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0697784169884229</v>
+        <v>0.0554279838706064</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0152634411639987</v>
+        <v>0.020741759376999</v>
       </c>
       <c r="D6" t="n">
-        <v>4.57160454439374</v>
+        <v>2.67228940723668</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000867199485852964</v>
+        <v>0.0221528553925902</v>
       </c>
       <c r="F6" t="n">
-        <v>0.065985623245825</v>
+        <v>0.0650004224121209</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01613743922137</v>
+        <v>0.0152060510957056</v>
       </c>
       <c r="H6" t="n">
-        <v>4.08897733653078</v>
+        <v>4.27464185165586</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00190712337892694</v>
+        <v>0.00139825630931756</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0533568097694231</v>
+        <v>0.052353431481137</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0175417417223334</v>
+        <v>0.0166295426366686</v>
       </c>
       <c r="L6" t="n">
-        <v>3.041705357085</v>
+        <v>3.14821836204299</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0115599770432151</v>
+        <v>0.00956952556547372</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0668473249975715</v>
+        <v>0.0665903136180718</v>
       </c>
       <c r="O6" t="n">
-        <v>0.016930649857658</v>
+        <v>0.0165040461635852</v>
       </c>
       <c r="P6" t="n">
-        <v>3.94830237229998</v>
+        <v>4.03478716419236</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0024074957121355</v>
+        <v>0.00207603447551493</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0785345397611212</v>
+        <v>0.0755273086571043</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0357146403484212</v>
+        <v>0.0333093924621801</v>
       </c>
       <c r="T6" t="n">
-        <v>2.19894527832178</v>
+        <v>2.26744779998191</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0509268946222447</v>
+        <v>0.0451943850376941</v>
       </c>
       <c r="V6"/>
       <c r="W6"/>
@@ -1038,64 +1038,64 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0597040609337386</v>
+        <v>0.0519565023917307</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0151607738705704</v>
+        <v>0.0203842160861286</v>
       </c>
       <c r="D7" t="n">
-        <v>3.93806156885132</v>
+        <v>2.54885947893218</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00227994982214799</v>
+        <v>0.0269520763783054</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0517008917977194</v>
+        <v>0.0531647647393375</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0156834086296955</v>
+        <v>0.016260037180973</v>
       </c>
       <c r="H7" t="n">
-        <v>3.29653412841818</v>
+        <v>3.26965825155364</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00704641161018393</v>
+        <v>0.00740098886642791</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0443143212511836</v>
+        <v>0.0459627671644648</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0159871864567782</v>
+        <v>0.0167922816136395</v>
       </c>
       <c r="L7" t="n">
-        <v>2.77186491638092</v>
+        <v>2.73713651438121</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0180335795930993</v>
+        <v>0.0192111450250149</v>
       </c>
       <c r="N7" t="n">
-        <v>0.055214002803721</v>
+        <v>0.0576903834087564</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0197693667125438</v>
+        <v>0.0214036678152967</v>
       </c>
       <c r="P7" t="n">
-        <v>2.79290700640842</v>
+        <v>2.69535034399696</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0173445987551797</v>
+        <v>0.0206784860087683</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0625220511296028</v>
+        <v>0.0683581566843055</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0292996976129147</v>
+        <v>0.0336684100720061</v>
       </c>
       <c r="T7" t="n">
-        <v>2.13388042278103</v>
+        <v>2.03033515803416</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0560016075223958</v>
+        <v>0.0670321520122528</v>
       </c>
       <c r="V7"/>
       <c r="W7"/>
@@ -1107,64 +1107,64 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0235668403168593</v>
+        <v>0.0199160971591002</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0248577849533773</v>
+        <v>0.0320440543036722</v>
       </c>
       <c r="D8" t="n">
-        <v>0.948066787167914</v>
+        <v>0.621522388220951</v>
       </c>
       <c r="E8" t="n">
-        <v>0.366999256291204</v>
+        <v>0.549144066610772</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0271528049533789</v>
+        <v>0.0290611727622559</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0265113364289175</v>
+        <v>0.0273904891110881</v>
       </c>
       <c r="H8" t="n">
-        <v>1.02419600860867</v>
+        <v>1.06099502803298</v>
       </c>
       <c r="I8" t="n">
-        <v>0.331548496559264</v>
+        <v>0.315460941475024</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0216315313550361</v>
+        <v>0.0237198967432038</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0287746471577344</v>
+        <v>0.0296197781120893</v>
       </c>
       <c r="L8" t="n">
-        <v>0.751756615344689</v>
+        <v>0.800812776295664</v>
       </c>
       <c r="M8" t="n">
-        <v>0.470717063169703</v>
+        <v>0.443204228069854</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0394387655285061</v>
+        <v>0.0427484632766967</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0368532041585222</v>
+        <v>0.0389152188231314</v>
       </c>
       <c r="P8" t="n">
-        <v>1.0701583872833</v>
+        <v>1.09850245146988</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.311406700792736</v>
+        <v>0.299572569318787</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0624221985989195</v>
+        <v>0.0688335137431654</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0522674544813026</v>
+        <v>0.057446636717022</v>
       </c>
       <c r="T8" t="n">
-        <v>1.1942842676842</v>
+        <v>1.1982166002552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.261761200425131</v>
+        <v>0.260401500349019</v>
       </c>
       <c r="V8"/>
       <c r="W8"/>
@@ -1176,64 +1176,64 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0523435613604844</v>
+        <v>0.047515270416094</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0328631541350829</v>
+        <v>0.0388792226448756</v>
       </c>
       <c r="D9" t="n">
-        <v>1.59277350997192</v>
+        <v>1.22212501134862</v>
       </c>
       <c r="E9" t="n">
-        <v>0.142700235056768</v>
+        <v>0.250067235151742</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0573758274036566</v>
+        <v>0.0600444850426103</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0350030951908688</v>
+        <v>0.0361355707430333</v>
       </c>
       <c r="H9" t="n">
-        <v>1.63916439648526</v>
+        <v>1.66164485043277</v>
       </c>
       <c r="I9" t="n">
-        <v>0.132607802901498</v>
+        <v>0.128066738391064</v>
       </c>
       <c r="J9" t="n">
-        <v>0.049346268783748</v>
+        <v>0.0520380131872119</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0365541161440765</v>
+        <v>0.0376941649917983</v>
       </c>
       <c r="L9" t="n">
-        <v>1.34995108592564</v>
+        <v>1.3805323237306</v>
       </c>
       <c r="M9" t="n">
-        <v>0.207159728696049</v>
+        <v>0.19797350401341</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0839178065322692</v>
+        <v>0.0884218786583162</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0416198109732836</v>
+        <v>0.0444400486803553</v>
       </c>
       <c r="P9" t="n">
-        <v>2.0162947541049</v>
+        <v>1.98968905939572</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0717789350125114</v>
+        <v>0.0751260845321074</v>
       </c>
       <c r="R9" t="n">
-        <v>0.10002641271686</v>
+        <v>0.110847239159286</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0580162184233147</v>
+        <v>0.0666218119360313</v>
       </c>
       <c r="T9" t="n">
-        <v>1.72411121295461</v>
+        <v>1.66382804577154</v>
       </c>
       <c r="U9" t="n">
-        <v>0.115748181328616</v>
+        <v>0.12757953622843</v>
       </c>
       <c r="V9"/>
       <c r="W9"/>
@@ -1245,64 +1245,64 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0948225393488051</v>
+        <v>0.0899242567470835</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0342334576181215</v>
+        <v>0.0387128766263198</v>
       </c>
       <c r="D10" t="n">
-        <v>2.76987911669813</v>
+        <v>2.32285132451114</v>
       </c>
       <c r="E10" t="n">
-        <v>0.020185048394513</v>
+        <v>0.0431478335647195</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0983463052714002</v>
+        <v>0.0996232485015071</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0352280188851608</v>
+        <v>0.0363194501505454</v>
       </c>
       <c r="H10" t="n">
-        <v>2.79170695326347</v>
+        <v>2.74297237674483</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0194505258560845</v>
+        <v>0.0211928246777691</v>
       </c>
       <c r="J10" t="n">
-        <v>0.086037150575089</v>
+        <v>0.0874221536964988</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0343285372088757</v>
+        <v>0.0353203038700513</v>
       </c>
       <c r="L10" t="n">
-        <v>2.50628653506517</v>
+        <v>2.47512462005248</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0315794903429889</v>
+        <v>0.0333744345969894</v>
       </c>
       <c r="N10" t="n">
-        <v>0.124602842470042</v>
+        <v>0.128060637192092</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0428206398811459</v>
+        <v>0.0455201678775246</v>
       </c>
       <c r="P10" t="n">
-        <v>2.90987810588288</v>
+        <v>2.81327251552868</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.015883503822857</v>
+        <v>0.018774237958734</v>
       </c>
       <c r="R10" t="n">
-        <v>0.119304527665592</v>
+        <v>0.127720992340788</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0685260446048163</v>
+        <v>0.0756719502733686</v>
       </c>
       <c r="T10" t="n">
-        <v>1.74100998173193</v>
+        <v>1.6878247736366</v>
       </c>
       <c r="U10" t="n">
-        <v>0.112843593595426</v>
+        <v>0.122994869045303</v>
       </c>
       <c r="V10"/>
       <c r="W10"/>
@@ -1314,64 +1314,64 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>0.060461651689895</v>
+        <v>0.0636338824414552</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0977291655757418</v>
+        <v>0.102918140367737</v>
       </c>
       <c r="D11" t="n">
-        <v>0.618665383396077</v>
+        <v>0.618296076999497</v>
       </c>
       <c r="E11" t="n">
-        <v>0.553508261223933</v>
+        <v>0.553737448103284</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0607158393052478</v>
+        <v>0.0623356416624499</v>
       </c>
       <c r="G11" t="n">
-        <v>0.11468595046962</v>
+        <v>0.116390164551355</v>
       </c>
       <c r="H11" t="n">
-        <v>0.529409566356004</v>
+        <v>0.535574822002638</v>
       </c>
       <c r="I11" t="n">
-        <v>0.611039605772374</v>
+        <v>0.606960236644958</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0471619735699407</v>
+        <v>0.0485895314434686</v>
       </c>
       <c r="K11" t="n">
-        <v>0.111936485658475</v>
+        <v>0.113668840695944</v>
       </c>
       <c r="L11" t="n">
-        <v>0.421327981600519</v>
+        <v>0.427465707805026</v>
       </c>
       <c r="M11" t="n">
-        <v>0.684723797149394</v>
+        <v>0.680427662871396</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0979904208002999</v>
+        <v>0.100784355706279</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0941653969703288</v>
+        <v>0.0954187088377144</v>
       </c>
       <c r="P11" t="n">
-        <v>1.04062026979163</v>
+        <v>1.05623265011572</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.32877147479913</v>
+        <v>0.321998441943263</v>
       </c>
       <c r="R11" t="n">
-        <v>0.132254961907858</v>
+        <v>0.135617470574639</v>
       </c>
       <c r="S11" t="n">
-        <v>0.133909761535134</v>
+        <v>0.134103505778444</v>
       </c>
       <c r="T11" t="n">
-        <v>0.987642427196453</v>
+        <v>1.01128952436707</v>
       </c>
       <c r="U11" t="n">
-        <v>0.352537270945725</v>
+        <v>0.34176162932562</v>
       </c>
       <c r="V11"/>
       <c r="W11"/>
@@ -1383,52 +1383,52 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0596559761781299</v>
+        <v>0.0582993286044237</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0277385193372319</v>
+        <v>0.0305037931463405</v>
       </c>
       <c r="D12" t="n">
-        <v>2.15065467095992</v>
+        <v>1.91121570765758</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0521490553188978</v>
+        <v>0.0794103219085271</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0501498617520782</v>
+        <v>0.0489653003937446</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0314852190003351</v>
+        <v>0.0314174236728701</v>
       </c>
       <c r="H12" t="n">
-        <v>1.59280650871587</v>
+        <v>1.55853964677656</v>
       </c>
       <c r="I12" t="n">
-        <v>0.136416612585929</v>
+        <v>0.144180805788516</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0161429310890189</v>
+        <v>0.0149017544776975</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0270753633474461</v>
+        <v>0.0268041057679214</v>
       </c>
       <c r="L12" t="n">
-        <v>0.596222140470059</v>
+        <v>0.555950443067256</v>
       </c>
       <c r="M12" t="n">
-        <v>0.561627633606481</v>
+        <v>0.587979209956025</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.0353913857324072</v>
+        <v>-0.0360561891948333</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0229377203353154</v>
+        <v>0.022474299055471</v>
       </c>
       <c r="P12" t="n">
-        <v>-1.54293387551325</v>
+        <v>-1.60432986612127</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.151889143369355</v>
+        <v>0.137680814631377</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
@@ -1444,52 +1444,52 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0605651309865634</v>
+        <v>0.0611547722464341</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0296747631072411</v>
+        <v>0.0307513438359481</v>
       </c>
       <c r="D13" t="n">
-        <v>2.04096426204611</v>
+        <v>1.98868617165747</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0615639722521218</v>
+        <v>0.067700920534187</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0675445947039922</v>
+        <v>0.064484450772735</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0369791219350571</v>
+        <v>0.0375169976254326</v>
       </c>
       <c r="H13" t="n">
-        <v>1.82656026345391</v>
+        <v>1.71880627060149</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0902879902900423</v>
+        <v>0.108734364866926</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0863449145598237</v>
+        <v>0.0844250179768771</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0432419519578524</v>
+        <v>0.0439770614471129</v>
       </c>
       <c r="L13" t="n">
-        <v>1.99678577516536</v>
+        <v>1.91975123391105</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0666151755505248</v>
+        <v>0.0763859281153418</v>
       </c>
       <c r="N13" t="n">
-        <v>0.109548152716457</v>
+        <v>0.108174502188427</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0426621124712591</v>
+        <v>0.0439388297902726</v>
       </c>
       <c r="P13" t="n">
-        <v>2.5678089145318</v>
+        <v>2.46193407300017</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0231187057732725</v>
+        <v>0.0280632444491428</v>
       </c>
       <c r="R13"/>
       <c r="S13"/>
@@ -1505,52 +1505,52 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>0.022499836722323</v>
+        <v>0.0244156668464332</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0248649610488987</v>
+        <v>0.0247779116270791</v>
       </c>
       <c r="D14" t="n">
-        <v>0.904881237419818</v>
+        <v>0.985380334464908</v>
       </c>
       <c r="E14" t="n">
-        <v>0.383341636240997</v>
+        <v>0.343897603131135</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0189022690820266</v>
+        <v>0.0180133933646897</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0268607520815309</v>
+        <v>0.0267393062680447</v>
       </c>
       <c r="H14" t="n">
-        <v>0.703713322123381</v>
+        <v>0.673667191815552</v>
       </c>
       <c r="I14" t="n">
-        <v>0.495114197034651</v>
+        <v>0.51339013201172</v>
       </c>
       <c r="J14" t="n">
-        <v>0.00502206528211369</v>
+        <v>0.00503176499693464</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0336184214419574</v>
+        <v>0.0339483359291381</v>
       </c>
       <c r="L14" t="n">
-        <v>0.149384327600995</v>
+        <v>0.148218310536271</v>
       </c>
       <c r="M14" t="n">
-        <v>0.883762600729463</v>
+        <v>0.88466876771673</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.0044927235092102</v>
+        <v>-0.00355268578238182</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0331091895374204</v>
+        <v>0.0340804108084061</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.13569415536833</v>
+        <v>-0.104244218250607</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.894312610562863</v>
+        <v>0.918699399155162</v>
       </c>
       <c r="R14"/>
       <c r="S14"/>
@@ -1566,52 +1566,52 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0314179304702072</v>
+        <v>-0.033829336129902</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0228975263861226</v>
+        <v>0.023285341721079</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.37211024197131</v>
+        <v>-1.45281682077606</v>
       </c>
       <c r="E15" t="n">
-        <v>0.20059671688576</v>
+        <v>0.177652466171965</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.032660538084017</v>
+        <v>-0.0339515318027743</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0232846704978157</v>
+        <v>0.024089896235186</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.40266266972001</v>
+        <v>-1.40936812144439</v>
       </c>
       <c r="I15" t="n">
-        <v>0.191568850246888</v>
+        <v>0.189729601995759</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.0352631417148443</v>
+        <v>-0.0367995018188028</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0279446354037495</v>
+        <v>0.0280809059717646</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.26189306839598</v>
+        <v>-1.31048128774067</v>
       </c>
       <c r="M15" t="n">
-        <v>0.236297109037533</v>
+        <v>0.220101670491879</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.107561312617165</v>
+        <v>-0.107723802792713</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0566550995157855</v>
+        <v>0.0568034923295771</v>
       </c>
       <c r="P15" t="n">
-        <v>-1.89852835025372</v>
+        <v>-1.89642922247973</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0832913972513075</v>
+        <v>0.0836098464245918</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
@@ -1627,52 +1627,52 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.00605480818884343</v>
+        <v>-0.00802107757286733</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0117008585736605</v>
+        <v>0.0102019160028067</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.517467000453561</v>
+        <v>-0.786232465613382</v>
       </c>
       <c r="E16" t="n">
-        <v>0.616620985748562</v>
+        <v>0.450800367178755</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.00748374688483042</v>
+        <v>-0.00646576057092813</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0118815759331002</v>
+        <v>0.0117321894523018</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.629861470142345</v>
+        <v>-0.551112867484388</v>
       </c>
       <c r="I16" t="n">
-        <v>0.54350604238224</v>
+        <v>0.594145639178856</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0019669046880285</v>
+        <v>0.00295625277439457</v>
       </c>
       <c r="K16" t="n">
-        <v>0.00751388017769856</v>
+        <v>0.00737599131337616</v>
       </c>
       <c r="L16" t="n">
-        <v>0.261769504106059</v>
+        <v>0.400793960946441</v>
       </c>
       <c r="M16" t="n">
-        <v>0.799000394707209</v>
+        <v>0.697278405479685</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0826853207301004</v>
+        <v>0.0821451383531718</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0191165694370455</v>
+        <v>0.0189841981604653</v>
       </c>
       <c r="P16" t="n">
-        <v>4.3253221244742</v>
+        <v>4.32702701788268</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.00122128212074756</v>
+        <v>0.00121939542724005</v>
       </c>
       <c r="R16"/>
       <c r="S16"/>
@@ -1688,52 +1688,52 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>0.000519880840557599</v>
+        <v>0.000521658317935731</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0000640474518771065</v>
+        <v>0.0000657115166975988</v>
       </c>
       <c r="D17" t="n">
-        <v>8.11711981227825</v>
+        <v>7.93861326221365</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0000286887404373021</v>
+        <v>0.0000349600518030601</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000564860717598448</v>
+        <v>0.000567831141208356</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0000702089086709212</v>
+        <v>0.000075224759177545</v>
       </c>
       <c r="H17" t="n">
-        <v>8.04542797048773</v>
+        <v>7.54846073841412</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0000380827714305749</v>
+        <v>0.000056191710316165</v>
       </c>
       <c r="J17" t="n">
-        <v>0.000651808380773073</v>
+        <v>0.000655145611916871</v>
       </c>
       <c r="K17" t="n">
-        <v>0.000061883934364706</v>
+        <v>0.000065950091907328</v>
       </c>
       <c r="L17" t="n">
-        <v>10.5327559966002</v>
+        <v>9.93396055971342</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00000331796538214253</v>
+        <v>0.00000480169921190597</v>
       </c>
       <c r="N17" t="n">
-        <v>0.000718237340383044</v>
+        <v>0.000718077639688489</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0000561754675352635</v>
+        <v>0.0000603866664307338</v>
       </c>
       <c r="P17" t="n">
-        <v>12.7856050318082</v>
+        <v>11.8913277074527</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.00000101970809542984</v>
+        <v>0.0000016093601132628</v>
       </c>
       <c r="R17"/>
       <c r="S17"/>
@@ -1749,52 +1749,52 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0227158644829518</v>
+        <v>-0.0223832239337787</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00691948559257813</v>
+        <v>0.00673226713545956</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.28288341366257</v>
+        <v>-3.32476764266883</v>
       </c>
       <c r="E18" t="n">
-        <v>0.012605093525985</v>
+        <v>0.0111944201767327</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0235793223074545</v>
+        <v>-0.0241533244108377</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0059847469577452</v>
+        <v>0.00673139199849138</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.93990296898671</v>
+        <v>-3.5881619160273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.00542024452856991</v>
+        <v>0.00773344432583068</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0209744901757597</v>
+        <v>-0.0214319661656497</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00737072912069428</v>
+        <v>0.00818398321943224</v>
       </c>
       <c r="L18" t="n">
-        <v>-2.84564658832342</v>
+        <v>-2.61876956379396</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0240014781591069</v>
+        <v>0.031248047823141</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.0246778354366153</v>
+        <v>-0.0244911343132044</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0070153226985994</v>
+        <v>0.00787064045268441</v>
       </c>
       <c r="P18" t="n">
-        <v>-3.51770495768387</v>
+        <v>-3.11170793030589</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.00953727806711856</v>
+        <v>0.0152431409973079</v>
       </c>
       <c r="R18"/>
       <c r="S18"/>
@@ -1810,52 +1810,52 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>0.230007691832277</v>
+        <v>0.222949567659541</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0941025367965051</v>
+        <v>0.0911124447437027</v>
       </c>
       <c r="D19" t="n">
-        <v>2.44422413743919</v>
+        <v>2.44697163254365</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0438840351387513</v>
+        <v>0.0427453870472583</v>
       </c>
       <c r="F19" t="n">
-        <v>0.24963364209071</v>
+        <v>0.257022441762782</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0892679701478406</v>
+        <v>0.0981098866310113</v>
       </c>
       <c r="H19" t="n">
-        <v>2.79645254257804</v>
+        <v>2.6197404827246</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0267813873325426</v>
+        <v>0.0330662916632569</v>
       </c>
       <c r="J19" t="n">
-        <v>0.249755812823532</v>
+        <v>0.255557658408985</v>
       </c>
       <c r="K19" t="n">
-        <v>0.105439411944455</v>
+        <v>0.115202970155184</v>
       </c>
       <c r="L19" t="n">
-        <v>2.36871401516449</v>
+        <v>2.21832525728057</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0495342472639761</v>
+        <v>0.0597924314013831</v>
       </c>
       <c r="N19" t="n">
-        <v>0.278763456342498</v>
+        <v>0.275493066157687</v>
       </c>
       <c r="O19" t="n">
-        <v>0.109879751155976</v>
+        <v>0.121593986128398</v>
       </c>
       <c r="P19" t="n">
-        <v>2.53698660044096</v>
+        <v>2.26568003015197</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0391144127436099</v>
+        <v>0.0569056172315191</v>
       </c>
       <c r="R19"/>
       <c r="S19"/>
@@ -1871,52 +1871,52 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>0.00680330575052948</v>
+        <v>-0.00659639869134638</v>
       </c>
       <c r="C20" t="n">
-        <v>0.128053298200469</v>
+        <v>0.1327255899377</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0531287037986229</v>
+        <v>-0.0496995243678531</v>
       </c>
       <c r="E20" t="n">
-        <v>0.959376992930228</v>
+        <v>0.961996334678582</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0128974399467444</v>
+        <v>-0.012291609083111</v>
       </c>
       <c r="G20" t="n">
-        <v>0.149323794396055</v>
+        <v>0.148430666915383</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0863723025450065</v>
+        <v>-0.0828104416597294</v>
       </c>
       <c r="I20" t="n">
-        <v>0.934017695446256</v>
+        <v>0.936731258887103</v>
       </c>
       <c r="J20" t="n">
-        <v>0.039452619038723</v>
+        <v>0.0394806044235857</v>
       </c>
       <c r="K20" t="n">
-        <v>0.132481421640289</v>
+        <v>0.131677518795238</v>
       </c>
       <c r="L20" t="n">
-        <v>0.297797370757721</v>
+        <v>0.299827979633936</v>
       </c>
       <c r="M20" t="n">
-        <v>0.776036804028019</v>
+        <v>0.774561756860222</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0103561531483552</v>
+        <v>0.0106668635307851</v>
       </c>
       <c r="O20" t="n">
-        <v>0.173962298774638</v>
+        <v>0.173721429288596</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0595310203492498</v>
+        <v>0.0614021170241736</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.954489347621695</v>
+        <v>0.953060989047301</v>
       </c>
       <c r="R20"/>
       <c r="S20"/>
@@ -1932,52 +1932,52 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>0.101076635226195</v>
+        <v>0.0997983889288878</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0139971383129777</v>
+        <v>0.0130551514691391</v>
       </c>
       <c r="D21" t="n">
-        <v>7.22123572448236</v>
+        <v>7.64436852110064</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0000193403295661456</v>
+        <v>0.0000116464787357637</v>
       </c>
       <c r="F21" t="n">
-        <v>0.104362638113513</v>
+        <v>0.105041992013948</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0169942798203356</v>
+        <v>0.0171109876793328</v>
       </c>
       <c r="H21" t="n">
-        <v>6.14104505850438</v>
+        <v>6.1388619980611</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0000821305652889652</v>
+        <v>0.0000822248607869245</v>
       </c>
       <c r="J21" t="n">
-        <v>0.133499690724311</v>
+        <v>0.134184384948773</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0179109957355669</v>
+        <v>0.0179285133651969</v>
       </c>
       <c r="L21" t="n">
-        <v>7.45350469037369</v>
+        <v>7.48441224408792</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0000143139551024415</v>
+        <v>0.0000137433646471336</v>
       </c>
       <c r="N21" t="n">
-        <v>0.156912182852377</v>
+        <v>0.157391272847764</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0293021514703244</v>
+        <v>0.0292494251399044</v>
       </c>
       <c r="P21" t="n">
-        <v>5.35497139216174</v>
+        <v>5.38100397169988</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.000260432311780701</v>
+        <v>0.000250310041870651</v>
       </c>
       <c r="R21"/>
       <c r="S21"/>
@@ -1993,52 +1993,52 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0574979571629251</v>
+        <v>0.0569629889544122</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00521851588070368</v>
+        <v>0.0061539965794301</v>
       </c>
       <c r="D22" t="n">
-        <v>11.0180669135325</v>
+        <v>9.25625944362929</v>
       </c>
       <c r="E22" t="n">
-        <v>0.000000235856180071646</v>
+        <v>0.0000014001164391205</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0591670037918143</v>
+        <v>0.0590268006694955</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00745430335935889</v>
+        <v>0.00769772351830218</v>
       </c>
       <c r="H22" t="n">
-        <v>7.93729486706897</v>
+        <v>7.66808531498343</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00000630758760590512</v>
+        <v>0.00000880129574730221</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0723713049819668</v>
+        <v>0.0722778024969536</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0123998088168772</v>
+        <v>0.0125193690401522</v>
       </c>
       <c r="L22" t="n">
-        <v>5.8364855499597</v>
+        <v>5.7732783709102</v>
       </c>
       <c r="M22" t="n">
-        <v>0.000105135420283119</v>
+        <v>0.000115690661512462</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0771889067597112</v>
+        <v>0.07760744693659</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0144536327599176</v>
+        <v>0.0142653202947853</v>
       </c>
       <c r="P22" t="n">
-        <v>5.34045025509224</v>
+        <v>5.4402877280617</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.00022996155782009</v>
+        <v>0.000197420307530553</v>
       </c>
       <c r="R22"/>
       <c r="S22"/>
@@ -2054,52 +2054,52 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.0895816272997502</v>
+        <v>-0.0926070120758595</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0116250073419408</v>
+        <v>0.0112404323939888</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.70594156758569</v>
+        <v>-8.23874107595579</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00000762522256663472</v>
+        <v>0.00000398228520027614</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0956128389808572</v>
+        <v>-0.0950847164114034</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0116388452564539</v>
+        <v>0.0116554920194514</v>
       </c>
       <c r="H23" t="n">
-        <v>-8.21497638933197</v>
+        <v>-8.15793243671909</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00000410580992281796</v>
+        <v>0.00000439675832219963</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.105827268251341</v>
+        <v>-0.105475696620902</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0166287963471885</v>
+        <v>0.0165771483585578</v>
       </c>
       <c r="L23" t="n">
-        <v>-6.36409671763363</v>
+        <v>-6.36271657461827</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0000461165662168211</v>
+        <v>0.0000462042576293582</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.0916099413004292</v>
+        <v>-0.091251875713418</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0157284696876135</v>
+        <v>0.0158070007800941</v>
       </c>
       <c r="P23" t="n">
-        <v>-5.82446627802412</v>
+        <v>-5.77287728285129</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.000101908131115583</v>
+        <v>0.000110088709089378</v>
       </c>
       <c r="R23"/>
       <c r="S23"/>
@@ -2115,40 +2115,40 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.0242614702772165</v>
+        <v>-0.0240102197893225</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0209222077711312</v>
+        <v>0.0209041844530363</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.15960373506532</v>
+        <v>-1.14858438238833</v>
       </c>
       <c r="E24" t="n">
-        <v>0.272070995207077</v>
+        <v>0.276350605465039</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0219372320865997</v>
+        <v>-0.0234299084832179</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0205608832104025</v>
+        <v>0.0220484449664152</v>
       </c>
       <c r="H24" t="n">
-        <v>-1.06694016312981</v>
+        <v>-1.06265582533857</v>
       </c>
       <c r="I24" t="n">
-        <v>0.310127729772376</v>
+        <v>0.311936849567052</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.000394729587272226</v>
+        <v>-0.00185509715120677</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0259470192225053</v>
+        <v>0.0259141445560999</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0152129068810284</v>
+        <v>-0.071586277802487</v>
       </c>
       <c r="M24" t="n">
-        <v>0.988149168884501</v>
+        <v>0.944281805329166</v>
       </c>
       <c r="N24"/>
       <c r="O24"/>
@@ -2168,40 +2168,40 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0349473815229038</v>
+        <v>0.0177810224630068</v>
       </c>
       <c r="C25" t="n">
-        <v>0.062240719435001</v>
+        <v>0.0506914220545293</v>
       </c>
       <c r="D25" t="n">
-        <v>0.561487428810972</v>
+        <v>0.350769849065973</v>
       </c>
       <c r="E25" t="n">
-        <v>0.593905616997242</v>
+        <v>0.737306557293768</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0244852525527929</v>
+        <v>0.029414055232081</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0638276099376168</v>
+        <v>0.0633367567907874</v>
       </c>
       <c r="H25" t="n">
-        <v>0.383615375489135</v>
+        <v>0.464407347683445</v>
       </c>
       <c r="I25" t="n">
-        <v>0.713938055544759</v>
+        <v>0.658171543322011</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0408633146861064</v>
+        <v>0.0428928418011134</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0892933504257184</v>
+        <v>0.0908387842113929</v>
       </c>
       <c r="L25" t="n">
-        <v>0.457629985786006</v>
+        <v>0.472186436371678</v>
       </c>
       <c r="M25" t="n">
-        <v>0.662732771621349</v>
+        <v>0.65300233711491</v>
       </c>
       <c r="N25"/>
       <c r="O25"/>
@@ -2221,40 +2221,40 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.0373737962427615</v>
+        <v>-0.0254669466126221</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0125705287356909</v>
+        <v>0.00927944584244082</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.97312842033828</v>
+        <v>-2.7444469254991</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0123198901655378</v>
+        <v>0.0187902819372597</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0356436803768389</v>
+        <v>-0.0301008683076392</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0124559952996827</v>
+        <v>0.0119768211489444</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.86156822632608</v>
+        <v>-2.51326023268638</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0150460712065401</v>
+        <v>0.0285022738337785</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.017897941646557</v>
+        <v>-0.0133983289051608</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0145361329692327</v>
+        <v>0.0128387416233555</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.23127255952047</v>
+        <v>-1.0435858356077</v>
       </c>
       <c r="M26" t="n">
-        <v>0.243257080593147</v>
+        <v>0.318793624976163</v>
       </c>
       <c r="N26"/>
       <c r="O26"/>
@@ -2274,40 +2274,40 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0573635605518226</v>
+        <v>0.0620553266277024</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0236599789358371</v>
+        <v>0.0222169973124795</v>
       </c>
       <c r="D27" t="n">
-        <v>2.42449753262188</v>
+        <v>2.79314642545531</v>
       </c>
       <c r="E27" t="n">
-        <v>0.043427297479488</v>
+        <v>0.024901024566749</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0777315185951404</v>
+        <v>0.0838159771011283</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0229409181465084</v>
+        <v>0.0225915310603414</v>
       </c>
       <c r="H27" t="n">
-        <v>3.38833511800708</v>
+        <v>3.71006183145613</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0103590265290886</v>
+        <v>0.00653667375806786</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0764966950236761</v>
+        <v>0.0818956467833765</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0260768215774175</v>
+        <v>0.0271021290084299</v>
       </c>
       <c r="L27" t="n">
-        <v>2.93351299722517</v>
+        <v>3.02174219441961</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0198169894602976</v>
+        <v>0.0172794773426854</v>
       </c>
       <c r="N27"/>
       <c r="O27"/>
@@ -2327,40 +2327,40 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0105844439502672</v>
+        <v>0.0171759396464268</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0283779556497944</v>
+        <v>0.0265608067388243</v>
       </c>
       <c r="D28" t="n">
-        <v>0.372981199945736</v>
+        <v>0.646664832710841</v>
       </c>
       <c r="E28" t="n">
-        <v>0.71561206553937</v>
+        <v>0.53033289992282</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00882998167171134</v>
+        <v>0.0235237396383613</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03391983583762</v>
+        <v>0.0246147430624193</v>
       </c>
       <c r="H28" t="n">
-        <v>0.260319115752268</v>
+        <v>0.955676830698926</v>
       </c>
       <c r="I28" t="n">
-        <v>0.799002097409884</v>
+        <v>0.358604330894163</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.0190661072845095</v>
+        <v>-0.00798737548632356</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0420408073425937</v>
+        <v>0.0393504967198022</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.453514299312531</v>
+        <v>-0.202980296365716</v>
       </c>
       <c r="M28" t="n">
-        <v>0.658081874054979</v>
+        <v>0.842566757686755</v>
       </c>
       <c r="N28"/>
       <c r="O28"/>
@@ -2380,40 +2380,40 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>0.016408981933838</v>
+        <v>0.0107379841416726</v>
       </c>
       <c r="C29" t="n">
-        <v>0.11011072667765</v>
+        <v>0.118873990875185</v>
       </c>
       <c r="D29" t="n">
-        <v>0.149022556011962</v>
+        <v>0.0903308121702351</v>
       </c>
       <c r="E29" t="n">
-        <v>0.898450777355367</v>
+        <v>0.938263871849925</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0360467296080817</v>
+        <v>0.0366716056016444</v>
       </c>
       <c r="G29" t="n">
-        <v>0.131320697919802</v>
+        <v>0.129376103368041</v>
       </c>
       <c r="H29" t="n">
-        <v>0.274493893035015</v>
+        <v>0.283449606588655</v>
       </c>
       <c r="I29" t="n">
-        <v>0.815869592934672</v>
+        <v>0.810075545752507</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0447261103791318</v>
+        <v>0.0454580392364991</v>
       </c>
       <c r="K29" t="n">
-        <v>0.127299459239856</v>
+        <v>0.125208449884483</v>
       </c>
       <c r="L29" t="n">
-        <v>0.351345643148881</v>
+        <v>0.363058877243818</v>
       </c>
       <c r="M29" t="n">
-        <v>0.767375281403852</v>
+        <v>0.760087370365826</v>
       </c>
       <c r="N29"/>
       <c r="O29"/>
@@ -2433,40 +2433,40 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.00223610518164783</v>
+        <v>-0.00292257674260236</v>
       </c>
       <c r="C30" t="n">
-        <v>0.011677347429933</v>
+        <v>0.0123871898960521</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.191490849704098</v>
+        <v>-0.235935411269816</v>
       </c>
       <c r="E30" t="n">
-        <v>0.851196205383911</v>
+        <v>0.8172814229356</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.0111113987683141</v>
+        <v>-0.010112710445206</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0126428606459065</v>
+        <v>0.0134321863972948</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.878867455674419</v>
+        <v>-0.75287150923119</v>
       </c>
       <c r="I30" t="n">
-        <v>0.395912643337948</v>
+        <v>0.465365058998382</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.0373154908730793</v>
+        <v>-0.0362419189523006</v>
       </c>
       <c r="K30" t="n">
-        <v>0.026517107484881</v>
+        <v>0.0267761969137503</v>
       </c>
       <c r="L30" t="n">
-        <v>-1.40722327630776</v>
+        <v>-1.3535125645005</v>
       </c>
       <c r="M30" t="n">
-        <v>0.183429701353534</v>
+        <v>0.199584238636603</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -2486,40 +2486,40 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.0298792565936507</v>
+        <v>-0.0371825979264496</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0805037632776469</v>
+        <v>0.0757798832953121</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.371153538383057</v>
+        <v>-0.49066581142056</v>
       </c>
       <c r="E31" t="n">
-        <v>0.726678332376531</v>
+        <v>0.645833760822474</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.0326499842090893</v>
+        <v>-0.0356370022599731</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0825318945821354</v>
+        <v>0.075403126507532</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.395604443280969</v>
+        <v>-0.47261968980044</v>
       </c>
       <c r="I31" t="n">
-        <v>0.709801183265089</v>
+        <v>0.657819456550932</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.0114919615888085</v>
+        <v>-0.0215191607156528</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0889071802572413</v>
+        <v>0.0820000861429213</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.129257969441366</v>
+        <v>-0.262428513527976</v>
       </c>
       <c r="M31" t="n">
-        <v>0.902529329418786</v>
+        <v>0.804212772961713</v>
       </c>
       <c r="N31"/>
       <c r="O31"/>
@@ -2539,40 +2539,40 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.0598387339826718</v>
+        <v>-0.095990521844521</v>
       </c>
       <c r="C32" t="n">
-        <v>0.139519817192257</v>
+        <v>0.149892450325444</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.4288905704357</v>
+        <v>-0.640395974821332</v>
       </c>
       <c r="E32" t="n">
-        <v>0.712372868831784</v>
+        <v>0.591538664342115</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.104684528724341</v>
+        <v>-0.107996643534211</v>
       </c>
       <c r="G32" t="n">
-        <v>0.146896951054194</v>
+        <v>0.147714121272</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.712639220712757</v>
+        <v>-0.731119290452582</v>
       </c>
       <c r="I32" t="n">
-        <v>0.554659617985202</v>
+        <v>0.545554411648185</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0548747389859378</v>
+        <v>0.0537478448708685</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0590281096745762</v>
+        <v>0.0596219694940898</v>
       </c>
       <c r="L32" t="n">
-        <v>0.929637409845309</v>
+        <v>0.901477179082393</v>
       </c>
       <c r="M32" t="n">
-        <v>0.457966162952951</v>
+        <v>0.469530470900526</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
@@ -2592,40 +2592,40 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>0.059099403814125</v>
+        <v>0.0799670637759366</v>
       </c>
       <c r="C33" t="n">
-        <v>0.052740439977115</v>
+        <v>0.0528337209882084</v>
       </c>
       <c r="D33" t="n">
-        <v>1.12057092886918</v>
+        <v>1.5135610795572</v>
       </c>
       <c r="E33" t="n">
-        <v>0.286140007119233</v>
+        <v>0.158428548805544</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0783456372071774</v>
+        <v>0.0795188283101256</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0565464310672036</v>
+        <v>0.0565996641558021</v>
       </c>
       <c r="H33" t="n">
-        <v>1.3855098496679</v>
+        <v>1.40493463161255</v>
       </c>
       <c r="I33" t="n">
-        <v>0.193227555035201</v>
+        <v>0.187520779358444</v>
       </c>
       <c r="J33" t="n">
-        <v>0.110793827440024</v>
+        <v>0.112362795880062</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0672934201080777</v>
+        <v>0.0668701858033043</v>
       </c>
       <c r="L33" t="n">
-        <v>1.64642883750123</v>
+        <v>1.68031230256443</v>
       </c>
       <c r="M33" t="n">
-        <v>0.130214403500676</v>
+        <v>0.123272132992994</v>
       </c>
       <c r="N33"/>
       <c r="O33"/>
@@ -2645,40 +2645,40 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0340279122119953</v>
+        <v>0.0194863410254025</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0262559047588121</v>
+        <v>0.0269016618507546</v>
       </c>
       <c r="D34" t="n">
-        <v>1.29600988899744</v>
+        <v>0.724354544842215</v>
       </c>
       <c r="E34" t="n">
-        <v>0.230067938931126</v>
+        <v>0.488398004520675</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0489162497679698</v>
+        <v>0.0489120038118365</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0319746984170278</v>
+        <v>0.0319679956262656</v>
       </c>
       <c r="H34" t="n">
-        <v>1.52984241258457</v>
+        <v>1.53003035860182</v>
       </c>
       <c r="I34" t="n">
-        <v>0.163030100263997</v>
+        <v>0.16299875638935</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0408806132350515</v>
+        <v>0.0406623346494248</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0465172464280108</v>
+        <v>0.0467867715626284</v>
       </c>
       <c r="L34" t="n">
-        <v>0.878827023829056</v>
+        <v>0.869098963047589</v>
       </c>
       <c r="M34" t="n">
-        <v>0.406136959519975</v>
+        <v>0.411109606997288</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
@@ -2698,40 +2698,40 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0289438835024079</v>
+        <v>0.0334024678116172</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0569561312991013</v>
+        <v>0.0563408134975711</v>
       </c>
       <c r="D35" t="n">
-        <v>0.508178537450359</v>
+        <v>0.592864492683572</v>
       </c>
       <c r="E35" t="n">
-        <v>0.620154185350763</v>
+        <v>0.563793372982055</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0386622036520402</v>
+        <v>0.0388406923271813</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0577741877335034</v>
+        <v>0.0584364950934175</v>
       </c>
       <c r="H35" t="n">
-        <v>0.669195105440139</v>
+        <v>0.664664988293531</v>
       </c>
       <c r="I35" t="n">
-        <v>0.515475228453825</v>
+        <v>0.518270404339051</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0332599304220743</v>
+        <v>0.0337430255960825</v>
       </c>
       <c r="K35" t="n">
-        <v>0.052591626860993</v>
+        <v>0.0525597301543995</v>
       </c>
       <c r="L35" t="n">
-        <v>0.632418740534209</v>
+        <v>0.641993889560676</v>
       </c>
       <c r="M35" t="n">
-        <v>0.540683111920851</v>
+        <v>0.534662970093019</v>
       </c>
       <c r="N35"/>
       <c r="O35"/>
@@ -2751,40 +2751,40 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0724347704300478</v>
+        <v>0.0687141287729896</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0670686230447991</v>
+        <v>0.0593616291391591</v>
       </c>
       <c r="D36" t="n">
-        <v>1.08000980401319</v>
+        <v>1.15755126281837</v>
       </c>
       <c r="E36" t="n">
-        <v>0.304815763691677</v>
+        <v>0.273825648477961</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0691766708317332</v>
+        <v>0.067973256053014</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0762792091863604</v>
+        <v>0.0759249274439743</v>
       </c>
       <c r="H36" t="n">
-        <v>0.906887624683224</v>
+        <v>0.895269292198824</v>
       </c>
       <c r="I36" t="n">
-        <v>0.385750957850861</v>
+        <v>0.391607972095222</v>
       </c>
       <c r="J36" t="n">
-        <v>0.144065687824761</v>
+        <v>0.14343571311934</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0813523169893726</v>
+        <v>0.080750457987468</v>
       </c>
       <c r="L36" t="n">
-        <v>1.77088610572187</v>
+        <v>1.77628358642375</v>
       </c>
       <c r="M36" t="n">
-        <v>0.110174188099124</v>
+        <v>0.109098900419642</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
@@ -2804,40 +2804,40 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0619860115495743</v>
+        <v>0.0547680972436089</v>
       </c>
       <c r="C37" t="n">
-        <v>0.100783561504746</v>
+        <v>0.101411794805836</v>
       </c>
       <c r="D37" t="n">
-        <v>0.615040891828928</v>
+        <v>0.540056483059673</v>
       </c>
       <c r="E37" t="n">
-        <v>0.550654167971066</v>
+        <v>0.599776291956376</v>
       </c>
       <c r="F37" t="n">
-        <v>0.143774919067063</v>
+        <v>0.14597810046852</v>
       </c>
       <c r="G37" t="n">
-        <v>0.097617107238778</v>
+        <v>0.0980659908861985</v>
       </c>
       <c r="H37" t="n">
-        <v>1.47284551994949</v>
+        <v>1.48857008581009</v>
       </c>
       <c r="I37" t="n">
-        <v>0.167630055326124</v>
+        <v>0.163509865329654</v>
       </c>
       <c r="J37" t="n">
-        <v>0.240800308902115</v>
+        <v>0.243239040777967</v>
       </c>
       <c r="K37" t="n">
-        <v>0.107798131618676</v>
+        <v>0.10860449915907</v>
       </c>
       <c r="L37" t="n">
-        <v>2.23380781546308</v>
+        <v>2.23967738594053</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0499439799275733</v>
+        <v>0.0494715627225887</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
@@ -2857,40 +2857,40 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>0.249512242495061</v>
+        <v>0.267230567699981</v>
       </c>
       <c r="C38" t="n">
-        <v>0.142069658913463</v>
+        <v>0.138398800661861</v>
       </c>
       <c r="D38" t="n">
-        <v>1.75626692147577</v>
+        <v>1.93087343547785</v>
       </c>
       <c r="E38" t="n">
-        <v>0.160504862596625</v>
+        <v>0.132210633476738</v>
       </c>
       <c r="F38" t="n">
-        <v>0.508796691135358</v>
+        <v>0.508295262245764</v>
       </c>
       <c r="G38" t="n">
-        <v>0.13583251053739</v>
+        <v>0.135347907926851</v>
       </c>
       <c r="H38" t="n">
-        <v>3.74576520099954</v>
+        <v>3.75547188007127</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0206127492424559</v>
+        <v>0.0204884472467183</v>
       </c>
       <c r="J38" t="n">
-        <v>0.596809156387432</v>
+        <v>0.595898656171933</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0925875541643819</v>
+        <v>0.0914604975601375</v>
       </c>
       <c r="L38" t="n">
-        <v>6.44588964222821</v>
+        <v>6.51536643762642</v>
       </c>
       <c r="M38" t="n">
-        <v>0.00415861886070271</v>
+        <v>0.00401175519270642</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -2910,40 +2910,40 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>0.26963045501825</v>
+        <v>0.273805684025576</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0200914686033352</v>
+        <v>0.0236861172500012</v>
       </c>
       <c r="D39" t="n">
-        <v>13.420146647393</v>
+        <v>11.5597538058105</v>
       </c>
       <c r="E39" t="n">
-        <v>0.00478876122660677</v>
+        <v>0.0063205202742511</v>
       </c>
       <c r="F39" t="n">
-        <v>0.224539604056706</v>
+        <v>0.226328465941219</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0434060394238899</v>
+        <v>0.0445717359839943</v>
       </c>
       <c r="H39" t="n">
-        <v>5.17300373489324</v>
+        <v>5.07784722637893</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0359489017861398</v>
+        <v>0.0371526899737136</v>
       </c>
       <c r="J39" t="n">
-        <v>0.219619656806767</v>
+        <v>0.221072875231213</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0469460968020942</v>
+        <v>0.0477654632651488</v>
       </c>
       <c r="L39" t="n">
-        <v>4.67812388605158</v>
+        <v>4.62829961480798</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0426937044839957</v>
+        <v>0.043460638146096</v>
       </c>
       <c r="N39"/>
       <c r="O39"/>
@@ -2963,40 +2963,40 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>0.323930165652903</v>
+        <v>0.316447217012437</v>
       </c>
       <c r="C40" t="n">
-        <v>0.036730240971072</v>
+        <v>0.0403591138075913</v>
       </c>
       <c r="D40" t="n">
-        <v>8.81916799587632</v>
+        <v>7.84078705298319</v>
       </c>
       <c r="E40" t="n">
-        <v>0.00216936525926532</v>
+        <v>0.00313470417611607</v>
       </c>
       <c r="F40" t="n">
-        <v>0.27425587024902</v>
+        <v>0.272213485377529</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0623417437840285</v>
+        <v>0.0620898309769207</v>
       </c>
       <c r="H40" t="n">
-        <v>4.39923322002556</v>
+        <v>4.38418789509529</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0198450677102037</v>
+        <v>0.0198781678330264</v>
       </c>
       <c r="J40" t="n">
-        <v>0.274447177636903</v>
+        <v>0.27278098654784</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0683929473890552</v>
+        <v>0.0679045168139014</v>
       </c>
       <c r="L40" t="n">
-        <v>4.01279939107906</v>
+        <v>4.01712580174042</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0256028077603894</v>
+        <v>0.025358980684582</v>
       </c>
       <c r="N40"/>
       <c r="O40"/>
@@ -3016,40 +3016,40 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>0.386330854993257</v>
+        <v>0.387580683117061</v>
       </c>
       <c r="C41" t="n">
-        <v>0.114125739650261</v>
+        <v>0.117397797587239</v>
       </c>
       <c r="D41" t="n">
-        <v>3.38513341667858</v>
+        <v>3.30143061524681</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0102690301134592</v>
+        <v>0.01149947612315</v>
       </c>
       <c r="F41" t="n">
-        <v>0.330962486441139</v>
+        <v>0.328933185899016</v>
       </c>
       <c r="G41" t="n">
-        <v>0.144955072541248</v>
+        <v>0.141680734521187</v>
       </c>
       <c r="H41" t="n">
-        <v>2.28320734582752</v>
+        <v>2.32165076649731</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0532427852370678</v>
+        <v>0.0499793474097329</v>
       </c>
       <c r="J41" t="n">
-        <v>0.258051224089596</v>
+        <v>0.255396052383797</v>
       </c>
       <c r="K41" t="n">
-        <v>0.158536735370957</v>
+        <v>0.154191533725547</v>
       </c>
       <c r="L41" t="n">
-        <v>1.62770618106767</v>
+        <v>1.65635587254997</v>
       </c>
       <c r="M41" t="n">
-        <v>0.143955145339469</v>
+        <v>0.137707677124421</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
@@ -3069,40 +3069,40 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>0.294426712444374</v>
+        <v>0.284537369067252</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0643438052187251</v>
+        <v>0.0717808214595598</v>
       </c>
       <c r="D42" t="n">
-        <v>4.57583618879119</v>
+        <v>3.9639748233803</v>
       </c>
       <c r="E42" t="n">
-        <v>0.00314454195871265</v>
+        <v>0.00648482434735788</v>
       </c>
       <c r="F42" t="n">
-        <v>0.227215527122746</v>
+        <v>0.224567183708554</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0833342193826247</v>
+        <v>0.0860772013805728</v>
       </c>
       <c r="H42" t="n">
-        <v>2.72655733510261</v>
+        <v>2.60890433363041</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0323959406581478</v>
+        <v>0.0383479863235434</v>
       </c>
       <c r="J42" t="n">
-        <v>0.174683489084681</v>
+        <v>0.172015890286456</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0922501017225434</v>
+        <v>0.0935321279307803</v>
       </c>
       <c r="L42" t="n">
-        <v>1.89358586953182</v>
+        <v>1.83911019766127</v>
       </c>
       <c r="M42" t="n">
-        <v>0.104530025747987</v>
+        <v>0.113252273074767</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
@@ -3122,40 +3122,40 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>0.034447177236862</v>
+        <v>0.0579161350800583</v>
       </c>
       <c r="C43" t="n">
-        <v>0.196867390141219</v>
+        <v>0.196548204652236</v>
       </c>
       <c r="D43" t="n">
-        <v>0.174976552552213</v>
+        <v>0.294666314467397</v>
       </c>
       <c r="E43" t="n">
-        <v>0.865438876115025</v>
+        <v>0.775733744457842</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.0464170152492576</v>
+        <v>-0.0460868509612041</v>
       </c>
       <c r="G43" t="n">
-        <v>0.246555706315503</v>
+        <v>0.2494148669753</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.188261776386795</v>
+        <v>-0.184779887101791</v>
       </c>
       <c r="I43" t="n">
-        <v>0.855359104865205</v>
+        <v>0.85799790214702</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.142614018865268</v>
+        <v>-0.143951823498731</v>
       </c>
       <c r="K43" t="n">
-        <v>0.26639498827244</v>
+        <v>0.269478252848107</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.535347980043146</v>
+        <v>-0.534187163443835</v>
       </c>
       <c r="M43" t="n">
-        <v>0.606974520587117</v>
+        <v>0.607734619339915</v>
       </c>
       <c r="N43"/>
       <c r="O43"/>
@@ -3175,40 +3175,40 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>0.000105582488058278</v>
+        <v>0.000120363536468705</v>
       </c>
       <c r="C44" t="n">
-        <v>0.000138316281007536</v>
+        <v>0.000133624684442289</v>
       </c>
       <c r="D44" t="n">
-        <v>0.763340998537443</v>
+        <v>0.9007582466598</v>
       </c>
       <c r="E44" t="n">
-        <v>0.470152113381062</v>
+        <v>0.397622553794315</v>
       </c>
       <c r="F44" t="n">
-        <v>0.000252823727698549</v>
+        <v>0.00024200921113486</v>
       </c>
       <c r="G44" t="n">
-        <v>0.000144233490405689</v>
+        <v>0.000150268837058677</v>
       </c>
       <c r="H44" t="n">
-        <v>1.75287810748686</v>
+        <v>1.61050831211504</v>
       </c>
       <c r="I44" t="n">
-        <v>0.123086699850995</v>
+        <v>0.151310972274106</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0000316598334741975</v>
+        <v>0.0000238665418758153</v>
       </c>
       <c r="K44" t="n">
-        <v>0.000202600311366044</v>
+        <v>0.000204407495164094</v>
       </c>
       <c r="L44" t="n">
-        <v>0.156267447274534</v>
+        <v>0.116759622031744</v>
       </c>
       <c r="M44" t="n">
-        <v>0.880199639411769</v>
+        <v>0.910303337658463</v>
       </c>
       <c r="N44"/>
       <c r="O44"/>
@@ -3228,40 +3228,40 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>0.00967861550252091</v>
+        <v>0.0090315665997582</v>
       </c>
       <c r="C45" t="n">
-        <v>0.00320523195239593</v>
+        <v>0.00384670315288063</v>
       </c>
       <c r="D45" t="n">
-        <v>3.01963029392805</v>
+        <v>2.34787199344843</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0115883448062575</v>
+        <v>0.0384588915791509</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00453572641535798</v>
+        <v>0.00408707565601144</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00393207212667437</v>
+        <v>0.00426104561490703</v>
       </c>
       <c r="H45" t="n">
-        <v>1.15352065507358</v>
+        <v>0.95917200269179</v>
       </c>
       <c r="I45" t="n">
-        <v>0.273027671508776</v>
+        <v>0.357971371588739</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.0050664005135776</v>
+        <v>-0.00536446199281287</v>
       </c>
       <c r="K45" t="n">
-        <v>0.00505381901780242</v>
+        <v>0.0050993236676171</v>
       </c>
       <c r="L45" t="n">
-        <v>-1.00248950263768</v>
+        <v>-1.05199480214984</v>
       </c>
       <c r="M45" t="n">
-        <v>0.337492675098446</v>
+        <v>0.315187610079838</v>
       </c>
       <c r="N45"/>
       <c r="O45"/>
@@ -3281,40 +3281,40 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>0.00665783818140596</v>
+        <v>0.00537236281549012</v>
       </c>
       <c r="C46" t="n">
-        <v>0.00231728305729394</v>
+        <v>0.00296412145942915</v>
       </c>
       <c r="D46" t="n">
-        <v>2.87312253910871</v>
+        <v>1.81246379037543</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0595186487115374</v>
+        <v>0.159047725147206</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0100161491881362</v>
+        <v>0.0109028961366476</v>
       </c>
       <c r="G46" t="n">
-        <v>0.00564710326752948</v>
+        <v>0.00554948123827727</v>
       </c>
       <c r="H46" t="n">
-        <v>1.77367912602704</v>
+        <v>1.96466942917932</v>
       </c>
       <c r="I46" t="n">
-        <v>0.17102452226021</v>
+        <v>0.137176250829159</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0130178802835231</v>
+        <v>0.0136799390774787</v>
       </c>
       <c r="K46" t="n">
-        <v>0.00542669536857649</v>
+        <v>0.00488080629456925</v>
       </c>
       <c r="L46" t="n">
-        <v>2.3988596004308</v>
+        <v>2.80280311322742</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0926559196632516</v>
+        <v>0.0613386269628791</v>
       </c>
       <c r="N46"/>
       <c r="O46"/>
@@ -3334,28 +3334,28 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.00582392821727115</v>
+        <v>-0.00648817070291021</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0112329828383756</v>
+        <v>0.011631217496999</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.518466759993142</v>
+        <v>-0.557823865350661</v>
       </c>
       <c r="E47" t="n">
-        <v>0.61965843809977</v>
+        <v>0.593959727257267</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.0112939503653299</v>
+        <v>-0.011111336231861</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0139850309107715</v>
+        <v>0.0140623523105523</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.807574215415648</v>
+        <v>-0.790147763793628</v>
       </c>
       <c r="I47" t="n">
-        <v>0.444493749579289</v>
+        <v>0.454010135580933</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
@@ -3379,28 +3379,28 @@
         <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.06740271762012</v>
+        <v>-0.066892272910515</v>
       </c>
       <c r="C48" t="n">
-        <v>0.061857184809781</v>
+        <v>0.0652585520553947</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.08965058509197</v>
+        <v>-1.02503458632875</v>
       </c>
       <c r="E48" t="n">
-        <v>0.298088435433453</v>
+        <v>0.326383585935995</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.0379602705295448</v>
+        <v>-0.0326580525940371</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0702740469740906</v>
+        <v>0.0730661511136254</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.540174817931582</v>
+        <v>-0.446965552397175</v>
       </c>
       <c r="I48" t="n">
-        <v>0.59966102489957</v>
+        <v>0.663449713405216</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
@@ -3424,28 +3424,28 @@
         <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.0248139134275648</v>
+        <v>-0.0256513892691586</v>
       </c>
       <c r="C49" t="n">
-        <v>0.00997365968307303</v>
+        <v>0.0105992679960052</v>
       </c>
       <c r="D49" t="n">
-        <v>-2.48794466786131</v>
+        <v>-2.42010950933841</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0377081033635983</v>
+        <v>0.0415959285674311</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.0204157802889205</v>
+        <v>-0.020645881435336</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0110550736527184</v>
+        <v>0.0113351080453872</v>
       </c>
       <c r="H49" t="n">
-        <v>-1.84673399112998</v>
+        <v>-1.82141020206135</v>
       </c>
       <c r="I49" t="n">
-        <v>0.104423418226007</v>
+        <v>0.108495029256178</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
@@ -3469,28 +3469,28 @@
         <v>73</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.00252744720690678</v>
+        <v>-0.00306185250562964</v>
       </c>
       <c r="C50" t="n">
-        <v>0.00653939786288246</v>
+        <v>0.00663368141505904</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.386495402161189</v>
+        <v>-0.461561584594485</v>
       </c>
       <c r="E50" t="n">
-        <v>0.705741682384841</v>
+        <v>0.652540934014362</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.00104317231950411</v>
+        <v>-0.00139552093842605</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00852488947314025</v>
+        <v>0.00851304304371952</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.122367840989714</v>
+        <v>-0.163927391328721</v>
       </c>
       <c r="I50" t="n">
-        <v>0.904562679087136</v>
+        <v>0.872421747845206</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
@@ -3514,28 +3514,28 @@
         <v>74</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.0022931947256558</v>
+        <v>-0.00218397909738343</v>
       </c>
       <c r="C51" t="n">
-        <v>0.000854625367037989</v>
+        <v>0.000980505380299105</v>
       </c>
       <c r="D51" t="n">
-        <v>-2.68327481736669</v>
+        <v>-2.22740144140484</v>
       </c>
       <c r="E51" t="n">
-        <v>0.200306045562837</v>
+        <v>0.242829524751135</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.00232214241279147</v>
+        <v>-0.00233257447681332</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00207980631681866</v>
+        <v>0.00205381318178912</v>
       </c>
       <c r="H51" t="n">
-        <v>-1.11651858829984</v>
+        <v>-1.13572865219482</v>
       </c>
       <c r="I51" t="n">
-        <v>0.447068465629183</v>
+        <v>0.441415618368621</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
@@ -3559,28 +3559,28 @@
         <v>75</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0329039493372047</v>
+        <v>0.0379341823890264</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0166752518827373</v>
+        <v>0.016195465674469</v>
       </c>
       <c r="D52" t="n">
-        <v>1.97322052875661</v>
+        <v>2.34227179085236</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0787364782107068</v>
+        <v>0.0435091218745745</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0438085214221587</v>
+        <v>0.0445921254761612</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0153923732715319</v>
+        <v>0.0162603070660509</v>
       </c>
       <c r="H52" t="n">
-        <v>2.84611870108311</v>
+        <v>2.74239135183756</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0183111683446175</v>
+        <v>0.0217270733810906</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
@@ -3604,28 +3604,28 @@
         <v>76</v>
       </c>
       <c r="B53" t="n">
-        <v>0.026226196437164</v>
+        <v>0.0254856817725251</v>
       </c>
       <c r="C53" t="n">
-        <v>0.027331033844107</v>
+        <v>0.0236826630675467</v>
       </c>
       <c r="D53" t="n">
-        <v>0.959575718458185</v>
+        <v>1.07613243070832</v>
       </c>
       <c r="E53" t="n">
-        <v>0.356907525517724</v>
+        <v>0.303790734289199</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0473366266961243</v>
+        <v>0.0468359793881494</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0347491515524801</v>
+        <v>0.0346815027850382</v>
       </c>
       <c r="H53" t="n">
-        <v>1.36223834485956</v>
+        <v>1.35045991745071</v>
       </c>
       <c r="I53" t="n">
-        <v>0.200822996910799</v>
+        <v>0.204442893754881</v>
       </c>
       <c r="J53"/>
       <c r="K53"/>
@@ -3649,28 +3649,28 @@
         <v>77</v>
       </c>
       <c r="B54" t="n">
-        <v>0.00000157212539090977</v>
+        <v>0.00000203356807982343</v>
       </c>
       <c r="C54" t="n">
-        <v>0.00000528735347988237</v>
+        <v>0.00000539357948669589</v>
       </c>
       <c r="D54" t="n">
-        <v>0.297336918534288</v>
+        <v>0.377034969974865</v>
       </c>
       <c r="E54" t="n">
-        <v>0.771764085157163</v>
+        <v>0.713369228606828</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00000195278012318004</v>
+        <v>0.0000021161653878107</v>
       </c>
       <c r="G54" t="n">
-        <v>0.00000742883626589321</v>
+        <v>0.00000736338671086278</v>
       </c>
       <c r="H54" t="n">
-        <v>0.262864875908696</v>
+        <v>0.28739022828841</v>
       </c>
       <c r="I54" t="n">
-        <v>0.797496240812633</v>
+        <v>0.779124980481246</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
@@ -3694,28 +3694,28 @@
         <v>78</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0000107327003622442</v>
+        <v>0.0000106647126812373</v>
       </c>
       <c r="C55" t="n">
-        <v>0.00000303359928408304</v>
+        <v>0.00000323554385194765</v>
       </c>
       <c r="D55" t="n">
-        <v>3.53794267375967</v>
+        <v>3.29611130902077</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00449903381133013</v>
+        <v>0.00707885052711643</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0000115531715125556</v>
+        <v>0.0000117054201418346</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0000039495155778862</v>
+        <v>0.00000393719191528211</v>
       </c>
       <c r="H55" t="n">
-        <v>2.92521229115874</v>
+        <v>2.97303773697196</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0142567465082962</v>
+        <v>0.0131188463077965</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
@@ -3739,16 +3739,16 @@
         <v>79</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.384415718956067</v>
+        <v>-0.393398482943731</v>
       </c>
       <c r="C56" t="n">
-        <v>0.211269725786353</v>
+        <v>0.15812401329859</v>
       </c>
       <c r="D56" t="n">
-        <v>-1.81954947650572</v>
+        <v>-2.48791106889543</v>
       </c>
       <c r="E56" t="n">
-        <v>0.112075925207924</v>
+        <v>0.0553229216797683</v>
       </c>
       <c r="F56"/>
       <c r="G56"/>
@@ -3776,16 +3776,16 @@
         <v>80</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.144051190222146</v>
+        <v>-0.0947247772606969</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0416927289989122</v>
+        <v>0.0442000922442614</v>
       </c>
       <c r="D57" t="n">
-        <v>-3.45506743456165</v>
+        <v>-2.14309003558686</v>
       </c>
       <c r="E57" t="n">
-        <v>0.00625638698285556</v>
+        <v>0.0606500400845647</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
@@ -3813,16 +3813,16 @@
         <v>81</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.218311730958258</v>
+        <v>-0.159350287644514</v>
       </c>
       <c r="C58" t="n">
-        <v>0.153859871370009</v>
+        <v>0.0991120521697175</v>
       </c>
       <c r="D58" t="n">
-        <v>-1.41889973658728</v>
+        <v>-1.60777911622338</v>
       </c>
       <c r="E58" t="n">
-        <v>0.181508214933809</v>
+        <v>0.132660379615</v>
       </c>
       <c r="F58"/>
       <c r="G58"/>
@@ -3850,16 +3850,16 @@
         <v>82</v>
       </c>
       <c r="B59" t="n">
-        <v>0.209399376800589</v>
+        <v>0.283521878091263</v>
       </c>
       <c r="C59" t="n">
-        <v>0.117231292978378</v>
+        <v>0.100141782129387</v>
       </c>
       <c r="D59" t="n">
-        <v>1.78620717626317</v>
+        <v>2.83120463868858</v>
       </c>
       <c r="E59" t="n">
-        <v>0.10367430174289</v>
+        <v>0.0210939303546739</v>
       </c>
       <c r="F59"/>
       <c r="G59"/>
@@ -3887,16 +3887,16 @@
         <v>83</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.546097862440819</v>
+        <v>-0.553041455344118</v>
       </c>
       <c r="C60" t="n">
-        <v>0.154919147771285</v>
+        <v>0.101540501090368</v>
       </c>
       <c r="D60" t="n">
-        <v>-3.52505077840378</v>
+        <v>-5.44651099221902</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0183775323195512</v>
+        <v>0.00381842464565197</v>
       </c>
       <c r="F60"/>
       <c r="G60"/>
